--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB27FB-8974-47FF-BC01-FF65500A5087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40640B-1030-4239-8793-1791644BBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24195" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="2445" windowWidth="22545" windowHeight="12780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -76,16 +76,16 @@
     <t>https://ec.europa.eu/eurostat/databrowser/view/teina500/default/table?lang=en</t>
   </si>
   <si>
-    <t>2020-Q3 savings rate for EU28</t>
-  </si>
-  <si>
-    <t>We use data for Q3-2020 in part because the household savings</t>
-  </si>
-  <si>
     <t>rate spiked after the start of the coronavirus pandemic; we do not</t>
   </si>
   <si>
     <t>expect savings to remain as high as they have been recently.</t>
+  </si>
+  <si>
+    <t>2019-Q3/4 savings rate for EU27</t>
+  </si>
+  <si>
+    <t>We average data from Q3/4-2019 in part because the household savings</t>
   </si>
 </sst>
 </file>
@@ -478,18 +478,18 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,69 +497,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -578,27 +578,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <f>0.0997</f>
-        <v>9.9699999999999997E-2</v>
+        <f>AVERAGE(0.1197,0.1249)</f>
+        <v>0.12229999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5882C-1F7E-4983-B15B-A6C39C4FBEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713D08D-3502-4ACD-AA63-81BD7DFAE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,14 +505,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,62 +520,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -593,44 +593,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -638,12 +640,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -651,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>21551</v>
       </c>
@@ -659,7 +661,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>21582</v>
       </c>
@@ -667,7 +669,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>21610</v>
       </c>
@@ -675,7 +677,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>21641</v>
       </c>
@@ -683,7 +685,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>21671</v>
       </c>
@@ -691,7 +693,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>21702</v>
       </c>
@@ -699,7 +701,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>21732</v>
       </c>
@@ -707,7 +709,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>21763</v>
       </c>
@@ -715,7 +717,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>21794</v>
       </c>
@@ -723,7 +725,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>21824</v>
       </c>
@@ -731,7 +733,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21855</v>
       </c>
@@ -739,7 +741,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>21885</v>
       </c>
@@ -747,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>21916</v>
       </c>
@@ -755,7 +757,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>21947</v>
       </c>
@@ -763,7 +765,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21976</v>
       </c>
@@ -771,7 +773,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22007</v>
       </c>
@@ -779,7 +781,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>22037</v>
       </c>
@@ -787,7 +789,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>22068</v>
       </c>
@@ -795,7 +797,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>22098</v>
       </c>
@@ -803,7 +805,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>22129</v>
       </c>
@@ -811,7 +813,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>22160</v>
       </c>
@@ -819,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>22190</v>
       </c>
@@ -827,7 +829,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>22221</v>
       </c>
@@ -835,7 +837,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>22251</v>
       </c>
@@ -843,7 +845,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>22282</v>
       </c>
@@ -851,7 +853,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>22313</v>
       </c>
@@ -859,7 +861,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>22341</v>
       </c>
@@ -867,7 +869,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>22372</v>
       </c>
@@ -875,7 +877,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>22402</v>
       </c>
@@ -883,7 +885,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>22433</v>
       </c>
@@ -891,7 +893,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>22463</v>
       </c>
@@ -899,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>22494</v>
       </c>
@@ -907,7 +909,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>22525</v>
       </c>
@@ -915,7 +917,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>22555</v>
       </c>
@@ -923,7 +925,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>22586</v>
       </c>
@@ -931,7 +933,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>22616</v>
       </c>
@@ -939,7 +941,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>22647</v>
       </c>
@@ -947,7 +949,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>22678</v>
       </c>
@@ -955,7 +957,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>22706</v>
       </c>
@@ -963,7 +965,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>22737</v>
       </c>
@@ -971,7 +973,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>22767</v>
       </c>
@@ -979,7 +981,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>22798</v>
       </c>
@@ -987,7 +989,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>22828</v>
       </c>
@@ -995,7 +997,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>22859</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>22890</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>22920</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>22951</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>22981</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>23012</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>23043</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>23071</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>23102</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>23132</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>23163</v>
       </c>
@@ -1083,7 +1085,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>23193</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>23224</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>23255</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>23285</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>23316</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>23346</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>23377</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>23408</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>23437</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>23468</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>23498</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>23529</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>23559</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>23590</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>23621</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>23651</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>23682</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>23712</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>23743</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>23774</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>23802</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>23833</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>23863</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>23894</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>23924</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>23955</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>23986</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>24016</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>24047</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>24077</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>24108</v>
       </c>
@@ -1331,7 +1333,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>24139</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>24167</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>24198</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>24228</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>24259</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>24289</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>24320</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>24351</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>24381</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>24412</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>24442</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>24473</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>24504</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>24532</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>24563</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>24593</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>24624</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>24654</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>24685</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>24716</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>24746</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>24777</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>24807</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>24838</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>24869</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>24898</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>24929</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>24959</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>24990</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>25020</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>25051</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>25082</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="5">
         <v>25112</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="5">
         <v>25143</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>25173</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="5">
         <v>25204</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>25235</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
         <v>25263</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>25294</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
         <v>25324</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="5">
         <v>25355</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="5">
         <v>25385</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="5">
         <v>25416</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="5">
         <v>25447</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>25477</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>25508</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>25538</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>25569</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>25600</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>25628</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>25659</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="5">
         <v>25689</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>25720</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>25750</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="5">
         <v>25781</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>25812</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>25842</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>25873</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>25903</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>25934</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>25965</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>25993</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>26024</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>26054</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>26085</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="5">
         <v>26115</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>26146</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>26177</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>26207</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>26238</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>26268</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>26299</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>26330</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>26359</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>26390</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>26420</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>26451</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>26481</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="5">
         <v>26512</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>26543</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
         <v>26573</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>26604</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>26634</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>26665</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>26696</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>26724</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>26755</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>26785</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>26816</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>26846</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>26877</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>26908</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>26938</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
         <v>26969</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>26999</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>27030</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>27061</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>27089</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>27120</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>27150</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>27181</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>27211</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>27242</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>27273</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>27303</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>27334</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>27364</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>27395</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>27426</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>27454</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>27485</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>27515</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>27546</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>27576</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>27607</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
         <v>27638</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
         <v>27668</v>
       </c>
@@ -2267,7 +2269,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>27699</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>27729</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
         <v>27760</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
         <v>27791</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
         <v>27820</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
         <v>27851</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
         <v>27881</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>27912</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
         <v>27942</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>27973</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
         <v>28004</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
         <v>28034</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
         <v>28065</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
         <v>28095</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
         <v>28126</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
         <v>28157</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
         <v>28185</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
         <v>28216</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
         <v>28246</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
         <v>28277</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
         <v>28307</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
         <v>28338</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
         <v>28369</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
         <v>28399</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
         <v>28430</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>28460</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
         <v>28491</v>
       </c>
@@ -2483,7 +2485,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>28522</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
         <v>28550</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
         <v>28581</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
         <v>28611</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
         <v>28642</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
         <v>28672</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
         <v>28703</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
         <v>28734</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
         <v>28764</v>
       </c>
@@ -2555,7 +2557,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
         <v>28795</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
         <v>28825</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
         <v>28856</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
         <v>28887</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
         <v>28915</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
         <v>28946</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
         <v>28976</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
         <v>29007</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
         <v>29037</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
         <v>29068</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
         <v>29099</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>29129</v>
       </c>
@@ -2651,7 +2653,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
         <v>29160</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>29190</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
         <v>29221</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
         <v>29252</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
         <v>29281</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
         <v>29312</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
         <v>29342</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
         <v>29373</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
         <v>29403</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
         <v>29434</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
         <v>29465</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
         <v>29495</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
         <v>29526</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
         <v>29556</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
         <v>29587</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
         <v>29618</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
         <v>29646</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
         <v>29677</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
         <v>29707</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>29738</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
         <v>29768</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
         <v>29799</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
         <v>29830</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
         <v>29860</v>
       </c>
@@ -2843,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
         <v>29891</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>29921</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
         <v>29952</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
         <v>29983</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
         <v>30011</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
         <v>30042</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
         <v>30072</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
         <v>30103</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
         <v>30133</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
         <v>30164</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
         <v>30195</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="5">
         <v>30225</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
         <v>30256</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
         <v>30286</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
         <v>30317</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
         <v>30348</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="5">
         <v>30376</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="5">
         <v>30407</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="5">
         <v>30437</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
         <v>30468</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
         <v>30498</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
         <v>30529</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="5">
         <v>30560</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="5">
         <v>30590</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
         <v>30621</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
         <v>30651</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
         <v>30682</v>
       </c>
@@ -3059,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
         <v>30713</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
         <v>30742</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
         <v>30773</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
         <v>30803</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="5">
         <v>30834</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
         <v>30864</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="5">
         <v>30895</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
         <v>30926</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
         <v>30956</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
         <v>30987</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="5">
         <v>31017</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
         <v>31048</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
         <v>31079</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
         <v>31107</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="5">
         <v>31138</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
         <v>31168</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
         <v>31199</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="5">
         <v>31229</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="5">
         <v>31260</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
         <v>31291</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="5">
         <v>31321</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="5">
         <v>31352</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="5">
         <v>31382</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="5">
         <v>31413</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="5">
         <v>31444</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="5">
         <v>31472</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="5">
         <v>31503</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="5">
         <v>31533</v>
       </c>
@@ -3283,7 +3285,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
         <v>31564</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="5">
         <v>31594</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="5">
         <v>31625</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="5">
         <v>31656</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="5">
         <v>31686</v>
       </c>
@@ -3323,7 +3325,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="5">
         <v>31717</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="5">
         <v>31747</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="5">
         <v>31778</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="5">
         <v>31809</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="5">
         <v>31837</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="5">
         <v>31868</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
         <v>31898</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="5">
         <v>31929</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="5">
         <v>31959</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="5">
         <v>31990</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="5">
         <v>32021</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="5">
         <v>32051</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="5">
         <v>32082</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="5">
         <v>32112</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="5">
         <v>32143</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
         <v>32174</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="5">
         <v>32203</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="5">
         <v>32234</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="5">
         <v>32264</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="5">
         <v>32295</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="5">
         <v>32325</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="5">
         <v>32356</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="5">
         <v>32387</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="5">
         <v>32417</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="5">
         <v>32448</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="5">
         <v>32478</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="5">
         <v>32509</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="5">
         <v>32540</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="5">
         <v>32568</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="5">
         <v>32599</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="5">
         <v>32629</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="5">
         <v>32660</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
         <v>32690</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="5">
         <v>32721</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="5">
         <v>32752</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
         <v>32782</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="5">
         <v>32813</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="5">
         <v>32843</v>
       </c>
@@ -3627,7 +3629,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="5">
         <v>32874</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="5">
         <v>32905</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="5">
         <v>32933</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
         <v>32964</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="5">
         <v>32994</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="5">
         <v>33025</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="5">
         <v>33055</v>
       </c>
@@ -3683,7 +3685,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="5">
         <v>33086</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="5">
         <v>33117</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
         <v>33147</v>
       </c>
@@ -3707,7 +3709,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="5">
         <v>33178</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
         <v>33208</v>
       </c>
@@ -3723,7 +3725,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
         <v>33239</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
         <v>33270</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
         <v>33298</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
         <v>33329</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
         <v>33359</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
         <v>33390</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
         <v>33420</v>
       </c>
@@ -3779,7 +3781,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
         <v>33451</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
         <v>33482</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
         <v>33512</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
         <v>33543</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
         <v>33573</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
         <v>33604</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
         <v>33635</v>
       </c>
@@ -3835,7 +3837,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
         <v>33664</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
         <v>33695</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
         <v>33725</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
         <v>33756</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
         <v>33786</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
         <v>33817</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
         <v>33848</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
         <v>33878</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
         <v>33909</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
         <v>33939</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
         <v>33970</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
         <v>34001</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
         <v>34029</v>
       </c>
@@ -3939,7 +3941,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
         <v>34060</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
         <v>34090</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
         <v>34121</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="5">
         <v>34151</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="5">
         <v>34182</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="5">
         <v>34213</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="5">
         <v>34243</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="5">
         <v>34274</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="5">
         <v>34304</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="5">
         <v>34335</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="5">
         <v>34366</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="5">
         <v>34394</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="5">
         <v>34425</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="5">
         <v>34455</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="5">
         <v>34486</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="5">
         <v>34516</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="5">
         <v>34547</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="5">
         <v>34578</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
         <v>34608</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="5">
         <v>34639</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="5">
         <v>34669</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="5">
         <v>34700</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="5">
         <v>34731</v>
       </c>
@@ -4123,7 +4125,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="5">
         <v>34759</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="5">
         <v>34790</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="5">
         <v>34820</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="5">
         <v>34851</v>
       </c>
@@ -4155,7 +4157,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="5">
         <v>34881</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="5">
         <v>34912</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="5">
         <v>34943</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="5">
         <v>34973</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="5">
         <v>35004</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="5">
         <v>35034</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="5">
         <v>35065</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="5">
         <v>35096</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="5">
         <v>35125</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="5">
         <v>35156</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="5">
         <v>35186</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
         <v>35217</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="5">
         <v>35247</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="5">
         <v>35278</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="5">
         <v>35309</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="5">
         <v>35339</v>
       </c>
@@ -4283,7 +4285,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="5">
         <v>35370</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="5">
         <v>35400</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="5">
         <v>35431</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="5">
         <v>35462</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="5">
         <v>35490</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="5">
         <v>35521</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="5">
         <v>35551</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="5">
         <v>35582</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="5">
         <v>35612</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="5">
         <v>35643</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="5">
         <v>35674</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="5">
         <v>35704</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="5">
         <v>35735</v>
       </c>
@@ -4387,7 +4389,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="5">
         <v>35765</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="5">
         <v>35796</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
         <v>35827</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="5">
         <v>35855</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="5">
         <v>35886</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="5">
         <v>35916</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="5">
         <v>35947</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="5">
         <v>35977</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="5">
         <v>36008</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="5">
         <v>36039</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="5">
         <v>36069</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="5">
         <v>36100</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="5">
         <v>36130</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="5">
         <v>36161</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="5">
         <v>36192</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="5">
         <v>36220</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="5">
         <v>36251</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="5">
         <v>36281</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="5">
         <v>36312</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="5">
         <v>36342</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="5">
         <v>36373</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="5">
         <v>36404</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="5">
         <v>36434</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="5">
         <v>36465</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="5">
         <v>36495</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="5">
         <v>36526</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="5">
         <v>36557</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="5">
         <v>36586</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="5">
         <v>36617</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="5">
         <v>36647</v>
       </c>
@@ -4627,7 +4629,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="5">
         <v>36678</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="5">
         <v>36708</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="5">
         <v>36739</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="5">
         <v>36770</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="5">
         <v>36800</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="5">
         <v>36831</v>
       </c>
@@ -4675,7 +4677,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="5">
         <v>36861</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="5">
         <v>36892</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="5">
         <v>36923</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="5">
         <v>36951</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="5">
         <v>36982</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="5">
         <v>37012</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="5">
         <v>37043</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="5">
         <v>37073</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="5">
         <v>37104</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="5">
         <v>37135</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="5">
         <v>37165</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="5">
         <v>37196</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="5">
         <v>37226</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="5">
         <v>37257</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="5">
         <v>37288</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="5">
         <v>37316</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="5">
         <v>37347</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="5">
         <v>37377</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="5">
         <v>37408</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="5">
         <v>37438</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="5">
         <v>37469</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="5">
         <v>37500</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="5">
         <v>37530</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="5">
         <v>37561</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="5">
         <v>37591</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="5">
         <v>37622</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="5">
         <v>37653</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="5">
         <v>37681</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="5">
         <v>37712</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="5">
         <v>37742</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="5">
         <v>37773</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="5">
         <v>37803</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="5">
         <v>37834</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="5">
         <v>37865</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="5">
         <v>37895</v>
       </c>
@@ -4955,7 +4957,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="5">
         <v>37926</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="5">
         <v>37956</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="5">
         <v>37987</v>
       </c>
@@ -4979,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="5">
         <v>38018</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="5">
         <v>38047</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="5">
         <v>38078</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="5">
         <v>38108</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="5">
         <v>38139</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="5">
         <v>38169</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="5">
         <v>38200</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="5">
         <v>38231</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="5">
         <v>38261</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="5">
         <v>38292</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="5">
         <v>38322</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="5">
         <v>38353</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="5">
         <v>38384</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="5">
         <v>38412</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="5">
         <v>38443</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="5">
         <v>38473</v>
       </c>
@@ -5107,7 +5109,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="5">
         <v>38504</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="5">
         <v>38534</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="5">
         <v>38565</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="5">
         <v>38596</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="5">
         <v>38626</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="5">
         <v>38657</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="5">
         <v>38687</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="5">
         <v>38718</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="5">
         <v>38749</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="5">
         <v>38777</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="5">
         <v>38808</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="5">
         <v>38838</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="5">
         <v>38869</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="5">
         <v>38899</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="5">
         <v>38930</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="5">
         <v>38961</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="5">
         <v>38991</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="5">
         <v>39022</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="5">
         <v>39052</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="5">
         <v>39083</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="5">
         <v>39114</v>
       </c>
@@ -5275,7 +5277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="5">
         <v>39142</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="5">
         <v>39173</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="5">
         <v>39203</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="5">
         <v>39234</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="5">
         <v>39264</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="5">
         <v>39295</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="5">
         <v>39326</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="5">
         <v>39356</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="5">
         <v>39387</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="5">
         <v>39417</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="5">
         <v>39448</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="5">
         <v>39479</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="5">
         <v>39508</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="5">
         <v>39539</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="5">
         <v>39569</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="5">
         <v>39600</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="5">
         <v>39630</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" s="5">
         <v>39661</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" s="5">
         <v>39692</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" s="5">
         <v>39722</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" s="5">
         <v>39753</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="5">
         <v>39783</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" s="5">
         <v>39814</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="5">
         <v>39845</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" s="5">
         <v>39873</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" s="5">
         <v>39904</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" s="5">
         <v>39934</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="5">
         <v>39965</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="5">
         <v>39995</v>
       </c>
@@ -5507,7 +5509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="5">
         <v>40026</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" s="5">
         <v>40057</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="5">
         <v>40087</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" s="5">
         <v>40118</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" s="5">
         <v>40148</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" s="5">
         <v>40179</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" s="5">
         <v>40210</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" s="5">
         <v>40238</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" s="5">
         <v>40269</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" s="5">
         <v>40299</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" s="5">
         <v>40330</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" s="5">
         <v>40360</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" s="5">
         <v>40391</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" s="5">
         <v>40422</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" s="5">
         <v>40452</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" s="5">
         <v>40483</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" s="5">
         <v>40513</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" s="5">
         <v>40544</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" s="5">
         <v>40575</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" s="5">
         <v>40603</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" s="5">
         <v>40634</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" s="5">
         <v>40664</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" s="5">
         <v>40695</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" s="5">
         <v>40725</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" s="5">
         <v>40756</v>
       </c>
@@ -5707,7 +5709,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" s="5">
         <v>40787</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" s="5">
         <v>40817</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" s="5">
         <v>40848</v>
       </c>
@@ -5731,7 +5733,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" s="5">
         <v>40878</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" s="5">
         <v>40909</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" s="5">
         <v>40940</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" s="5">
         <v>40969</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" s="5">
         <v>41000</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" s="5">
         <v>41030</v>
       </c>
@@ -5779,7 +5781,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" s="5">
         <v>41061</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="5">
         <v>41091</v>
       </c>
@@ -5795,7 +5797,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="5">
         <v>41122</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" s="5">
         <v>41153</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" s="5">
         <v>41183</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="5">
         <v>41214</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="5">
         <v>41244</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" s="5">
         <v>41275</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" s="5">
         <v>41306</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" s="5">
         <v>41334</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" s="5">
         <v>41365</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" s="5">
         <v>41395</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" s="5">
         <v>41426</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" s="5">
         <v>41456</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" s="5">
         <v>41487</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="5">
         <v>41518</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" s="5">
         <v>41548</v>
       </c>
@@ -5915,7 +5917,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="5">
         <v>41579</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" s="5">
         <v>41609</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" s="5">
         <v>41640</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" s="5">
         <v>41671</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" s="5">
         <v>41699</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="5">
         <v>41730</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="5">
         <v>41760</v>
       </c>
@@ -5971,7 +5973,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" s="5">
         <v>41791</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" s="5">
         <v>41821</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" s="5">
         <v>41852</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" s="5">
         <v>41883</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" s="5">
         <v>41913</v>
       </c>
@@ -6011,7 +6013,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" s="5">
         <v>41944</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" s="5">
         <v>41974</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" s="5">
         <v>42005</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" s="5">
         <v>42036</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" s="5">
         <v>42064</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" s="5">
         <v>42095</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" s="5">
         <v>42125</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" s="5">
         <v>42156</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" s="5">
         <v>42186</v>
       </c>
@@ -6083,7 +6085,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" s="5">
         <v>42217</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" s="5">
         <v>42248</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" s="5">
         <v>42278</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" s="5">
         <v>42309</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" s="5">
         <v>42339</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" s="5">
         <v>42370</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" s="5">
         <v>42401</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" s="5">
         <v>42430</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" s="5">
         <v>42461</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" s="5">
         <v>42491</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" s="5">
         <v>42522</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" s="5">
         <v>42552</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" s="5">
         <v>42583</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" s="5">
         <v>42614</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" s="5">
         <v>42644</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" s="5">
         <v>42675</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" s="5">
         <v>42705</v>
       </c>
@@ -6219,7 +6221,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" s="5">
         <v>42736</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" s="5">
         <v>42767</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" s="5">
         <v>42795</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" s="5">
         <v>42826</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" s="5">
         <v>42856</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" s="5">
         <v>42887</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" s="5">
         <v>42917</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" s="5">
         <v>42948</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" s="5">
         <v>42979</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" s="5">
         <v>43009</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" s="5">
         <v>43040</v>
       </c>
@@ -6307,7 +6309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" s="5">
         <v>43070</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" s="5">
         <v>43101</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" s="5">
         <v>43132</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" s="5">
         <v>43160</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" s="5">
         <v>43191</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" s="5">
         <v>43221</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" s="5">
         <v>43252</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" s="5">
         <v>43282</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" s="5">
         <v>43313</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" s="5">
         <v>43344</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" s="5">
         <v>43374</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" s="5">
         <v>43405</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" s="5">
         <v>43435</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" s="5">
         <v>43466</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" s="5">
         <v>43497</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" s="5">
         <v>43525</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" s="5">
         <v>43556</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" s="5">
         <v>43586</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" s="5">
         <v>43617</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" s="5">
         <v>43647</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" s="5">
         <v>43678</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" s="5">
         <v>43709</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" s="5">
         <v>43739</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" s="5">
         <v>43770</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" s="5">
         <v>43800</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" s="5">
         <v>43831</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" s="5">
         <v>43862</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" s="5">
         <v>43891</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" s="5">
         <v>43922</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" s="5">
         <v>43952</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" s="5">
         <v>43983</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" s="5">
         <v>44013</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" s="5">
         <v>44044</v>
       </c>
@@ -6583,25 +6585,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <f>AVERAGE(Data!B504:B743)/100</f>
-        <v>6.0595833333333321E-2</v>
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB27FB-8974-47FF-BC01-FF65500A5087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713D08D-3502-4ACD-AA63-81BD7DFAE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24195" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HSR" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="HSR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>HSR Household Savings Rate</t>
   </si>
   <si>
     <t>Source:</t>
+  </si>
+  <si>
+    <t>Personal Savings Rate (PSAVERT)</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/PSAVERT</t>
   </si>
   <si>
     <t>Notes</t>
@@ -67,33 +73,53 @@
     <t>Household Savings Rate</t>
   </si>
   <si>
-    <t>EUROSTAT</t>
+    <t>FRED Graph Observations</t>
   </si>
   <si>
-    <t>Household saving rate (TEINA500)</t>
+    <t>Federal Reserve Economic Data</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/teina500/default/table?lang=en</t>
+    <t>Link: https://fred.stlouisfed.org</t>
   </si>
   <si>
-    <t>2020-Q3 savings rate for EU28</t>
+    <t>Help: https://fred.stlouisfed.org/help-faq</t>
   </si>
   <si>
-    <t>We use data for Q3-2020 in part because the household savings</t>
+    <t>Economic Research Division</t>
   </si>
   <si>
-    <t>rate spiked after the start of the coronavirus pandemic; we do not</t>
+    <t>Federal Reserve Bank of St. Louis</t>
   </si>
   <si>
-    <t>expect savings to remain as high as they have been recently.</t>
+    <t>PSAVERT</t>
+  </si>
+  <si>
+    <t>Personal Saving Rate, Percent, Monthly, Seasonally Adjusted Annual Rate</t>
+  </si>
+  <si>
+    <t>Frequency: Monthly</t>
+  </si>
+  <si>
+    <t>observation_date</t>
+  </si>
+  <si>
+    <t>We take a 20-year average (2000-2019) for the U.S.</t>
+  </si>
+  <si>
+    <t>This excludes outlier months caused by the COVID</t>
+  </si>
+  <si>
+    <t>pandemic in early 2020.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -149,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +184,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,99 +500,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53E62A-DC55-435E-84B0-0337EC6CDF03}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{1350D0AD-6499-408F-B14C-C5B8D503DBF2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E7B40E0A-AF04-4429-90FA-59A7265B8C0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -572,7 +590,5996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
+  <dimension ref="A1:B751"/>
+  <sheetViews>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>21551</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>21582</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>21610</v>
+      </c>
+      <c r="B14" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>21641</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>21671</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>21702</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>21732</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>21763</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>21794</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>21824</v>
+      </c>
+      <c r="B21" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21855</v>
+      </c>
+      <c r="B22" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>21885</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>21916</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>21947</v>
+      </c>
+      <c r="B25" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>21976</v>
+      </c>
+      <c r="B26" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>22007</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>22037</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>22068</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>22098</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>22129</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>22160</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>22190</v>
+      </c>
+      <c r="B33" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>22221</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>22251</v>
+      </c>
+      <c r="B35" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>22282</v>
+      </c>
+      <c r="B36" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>22313</v>
+      </c>
+      <c r="B37" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>22341</v>
+      </c>
+      <c r="B38" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>22372</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>22402</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>22433</v>
+      </c>
+      <c r="B41" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>22463</v>
+      </c>
+      <c r="B42" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>22494</v>
+      </c>
+      <c r="B43" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>22525</v>
+      </c>
+      <c r="B44" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>22555</v>
+      </c>
+      <c r="B45" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>22586</v>
+      </c>
+      <c r="B46" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>22616</v>
+      </c>
+      <c r="B47" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>22647</v>
+      </c>
+      <c r="B48" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>22678</v>
+      </c>
+      <c r="B49" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>22706</v>
+      </c>
+      <c r="B50" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>22737</v>
+      </c>
+      <c r="B51" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>22767</v>
+      </c>
+      <c r="B52" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>22798</v>
+      </c>
+      <c r="B53" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>22828</v>
+      </c>
+      <c r="B54" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>22859</v>
+      </c>
+      <c r="B55" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>22890</v>
+      </c>
+      <c r="B56" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>22920</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>22951</v>
+      </c>
+      <c r="B58" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>22981</v>
+      </c>
+      <c r="B59" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>23012</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>23043</v>
+      </c>
+      <c r="B61" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>23071</v>
+      </c>
+      <c r="B62" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>23102</v>
+      </c>
+      <c r="B63" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>23132</v>
+      </c>
+      <c r="B64" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>23163</v>
+      </c>
+      <c r="B65" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>23193</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>23224</v>
+      </c>
+      <c r="B67" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>23255</v>
+      </c>
+      <c r="B68" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>23285</v>
+      </c>
+      <c r="B69" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>23316</v>
+      </c>
+      <c r="B70" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>23346</v>
+      </c>
+      <c r="B71" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>23377</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>23408</v>
+      </c>
+      <c r="B73" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>23437</v>
+      </c>
+      <c r="B74" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>23468</v>
+      </c>
+      <c r="B75" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>23498</v>
+      </c>
+      <c r="B76" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>23529</v>
+      </c>
+      <c r="B77" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>23559</v>
+      </c>
+      <c r="B78" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>23590</v>
+      </c>
+      <c r="B79" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>23621</v>
+      </c>
+      <c r="B80" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>23651</v>
+      </c>
+      <c r="B81" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>23682</v>
+      </c>
+      <c r="B82" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>23712</v>
+      </c>
+      <c r="B83" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>23743</v>
+      </c>
+      <c r="B84" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>23774</v>
+      </c>
+      <c r="B85" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>23802</v>
+      </c>
+      <c r="B86" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>23833</v>
+      </c>
+      <c r="B87" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>23863</v>
+      </c>
+      <c r="B88" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>23894</v>
+      </c>
+      <c r="B89" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>23924</v>
+      </c>
+      <c r="B90" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>23955</v>
+      </c>
+      <c r="B91" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>23986</v>
+      </c>
+      <c r="B92" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>24016</v>
+      </c>
+      <c r="B93" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>24047</v>
+      </c>
+      <c r="B94" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>24077</v>
+      </c>
+      <c r="B95" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>24108</v>
+      </c>
+      <c r="B96" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>24139</v>
+      </c>
+      <c r="B97" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>24167</v>
+      </c>
+      <c r="B98" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>24198</v>
+      </c>
+      <c r="B99" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>24228</v>
+      </c>
+      <c r="B100" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>24259</v>
+      </c>
+      <c r="B101" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>24289</v>
+      </c>
+      <c r="B102" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>24320</v>
+      </c>
+      <c r="B103" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>24351</v>
+      </c>
+      <c r="B104" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>24381</v>
+      </c>
+      <c r="B105" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>24412</v>
+      </c>
+      <c r="B106" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>24442</v>
+      </c>
+      <c r="B107" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>24473</v>
+      </c>
+      <c r="B108" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>24504</v>
+      </c>
+      <c r="B109" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>24532</v>
+      </c>
+      <c r="B110" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>24563</v>
+      </c>
+      <c r="B111" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>24593</v>
+      </c>
+      <c r="B112" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>24624</v>
+      </c>
+      <c r="B113" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>24654</v>
+      </c>
+      <c r="B114" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>24685</v>
+      </c>
+      <c r="B115" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>24716</v>
+      </c>
+      <c r="B116" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>24746</v>
+      </c>
+      <c r="B117" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>24777</v>
+      </c>
+      <c r="B118" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>24807</v>
+      </c>
+      <c r="B119" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>24838</v>
+      </c>
+      <c r="B120" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>24869</v>
+      </c>
+      <c r="B121" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>24898</v>
+      </c>
+      <c r="B122" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>24929</v>
+      </c>
+      <c r="B123" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>24959</v>
+      </c>
+      <c r="B124" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>24990</v>
+      </c>
+      <c r="B125" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>25020</v>
+      </c>
+      <c r="B126" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>25051</v>
+      </c>
+      <c r="B127" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>25082</v>
+      </c>
+      <c r="B128" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>25112</v>
+      </c>
+      <c r="B129" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>25143</v>
+      </c>
+      <c r="B130" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="5">
+        <v>25173</v>
+      </c>
+      <c r="B131" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="5">
+        <v>25204</v>
+      </c>
+      <c r="B132" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>25235</v>
+      </c>
+      <c r="B133" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
+        <v>25263</v>
+      </c>
+      <c r="B134" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="5">
+        <v>25294</v>
+      </c>
+      <c r="B135" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>25324</v>
+      </c>
+      <c r="B136" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="5">
+        <v>25355</v>
+      </c>
+      <c r="B137" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="5">
+        <v>25385</v>
+      </c>
+      <c r="B138" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="5">
+        <v>25416</v>
+      </c>
+      <c r="B139" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="5">
+        <v>25447</v>
+      </c>
+      <c r="B140" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="5">
+        <v>25477</v>
+      </c>
+      <c r="B141" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="5">
+        <v>25508</v>
+      </c>
+      <c r="B142" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
+        <v>25538</v>
+      </c>
+      <c r="B143" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="5">
+        <v>25569</v>
+      </c>
+      <c r="B144" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="5">
+        <v>25600</v>
+      </c>
+      <c r="B145" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
+        <v>25628</v>
+      </c>
+      <c r="B146" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="5">
+        <v>25659</v>
+      </c>
+      <c r="B147" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>25689</v>
+      </c>
+      <c r="B148" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="5">
+        <v>25720</v>
+      </c>
+      <c r="B149" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="5">
+        <v>25750</v>
+      </c>
+      <c r="B150" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="5">
+        <v>25781</v>
+      </c>
+      <c r="B151" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>25812</v>
+      </c>
+      <c r="B152" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>25842</v>
+      </c>
+      <c r="B153" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="5">
+        <v>25873</v>
+      </c>
+      <c r="B154" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="5">
+        <v>25903</v>
+      </c>
+      <c r="B155" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>25934</v>
+      </c>
+      <c r="B156" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="5">
+        <v>25965</v>
+      </c>
+      <c r="B157" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
+        <v>25993</v>
+      </c>
+      <c r="B158" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="5">
+        <v>26024</v>
+      </c>
+      <c r="B159" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
+        <v>26054</v>
+      </c>
+      <c r="B160" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>26085</v>
+      </c>
+      <c r="B161" s="6">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="5">
+        <v>26115</v>
+      </c>
+      <c r="B162" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="5">
+        <v>26146</v>
+      </c>
+      <c r="B163" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="5">
+        <v>26177</v>
+      </c>
+      <c r="B164" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="5">
+        <v>26207</v>
+      </c>
+      <c r="B165" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
+        <v>26238</v>
+      </c>
+      <c r="B166" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="5">
+        <v>26268</v>
+      </c>
+      <c r="B167" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
+        <v>26299</v>
+      </c>
+      <c r="B168" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
+        <v>26330</v>
+      </c>
+      <c r="B169" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
+        <v>26359</v>
+      </c>
+      <c r="B170" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="5">
+        <v>26390</v>
+      </c>
+      <c r="B171" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>26420</v>
+      </c>
+      <c r="B172" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
+        <v>26451</v>
+      </c>
+      <c r="B173" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>26481</v>
+      </c>
+      <c r="B174" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
+        <v>26512</v>
+      </c>
+      <c r="B175" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="5">
+        <v>26543</v>
+      </c>
+      <c r="B176" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="5">
+        <v>26573</v>
+      </c>
+      <c r="B177" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="5">
+        <v>26604</v>
+      </c>
+      <c r="B178" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
+        <v>26634</v>
+      </c>
+      <c r="B179" s="6">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="5">
+        <v>26665</v>
+      </c>
+      <c r="B180" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
+        <v>26696</v>
+      </c>
+      <c r="B181" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
+        <v>26724</v>
+      </c>
+      <c r="B182" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
+        <v>26755</v>
+      </c>
+      <c r="B183" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
+        <v>26785</v>
+      </c>
+      <c r="B184" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
+        <v>26816</v>
+      </c>
+      <c r="B185" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>26846</v>
+      </c>
+      <c r="B186" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>26877</v>
+      </c>
+      <c r="B187" s="6">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="5">
+        <v>26908</v>
+      </c>
+      <c r="B188" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>26938</v>
+      </c>
+      <c r="B189" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>26969</v>
+      </c>
+      <c r="B190" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>26999</v>
+      </c>
+      <c r="B191" s="6">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>27030</v>
+      </c>
+      <c r="B192" s="6">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>27061</v>
+      </c>
+      <c r="B193" s="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
+        <v>27089</v>
+      </c>
+      <c r="B194" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
+        <v>27120</v>
+      </c>
+      <c r="B195" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="5">
+        <v>27150</v>
+      </c>
+      <c r="B196" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
+        <v>27181</v>
+      </c>
+      <c r="B197" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>27211</v>
+      </c>
+      <c r="B198" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="5">
+        <v>27242</v>
+      </c>
+      <c r="B199" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="5">
+        <v>27273</v>
+      </c>
+      <c r="B200" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="5">
+        <v>27303</v>
+      </c>
+      <c r="B201" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="5">
+        <v>27334</v>
+      </c>
+      <c r="B202" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="5">
+        <v>27364</v>
+      </c>
+      <c r="B203" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
+        <v>27395</v>
+      </c>
+      <c r="B204" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="5">
+        <v>27426</v>
+      </c>
+      <c r="B205" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="5">
+        <v>27454</v>
+      </c>
+      <c r="B206" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="5">
+        <v>27485</v>
+      </c>
+      <c r="B207" s="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="5">
+        <v>27515</v>
+      </c>
+      <c r="B208" s="6">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="5">
+        <v>27546</v>
+      </c>
+      <c r="B209" s="6">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
+        <v>27576</v>
+      </c>
+      <c r="B210" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
+        <v>27607</v>
+      </c>
+      <c r="B211" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
+        <v>27638</v>
+      </c>
+      <c r="B212" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
+        <v>27668</v>
+      </c>
+      <c r="B213" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="5">
+        <v>27699</v>
+      </c>
+      <c r="B214" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="5">
+        <v>27729</v>
+      </c>
+      <c r="B215" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="5">
+        <v>27760</v>
+      </c>
+      <c r="B216" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="5">
+        <v>27791</v>
+      </c>
+      <c r="B217" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
+        <v>27820</v>
+      </c>
+      <c r="B218" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="5">
+        <v>27851</v>
+      </c>
+      <c r="B219" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="5">
+        <v>27881</v>
+      </c>
+      <c r="B220" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="5">
+        <v>27912</v>
+      </c>
+      <c r="B221" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="5">
+        <v>27942</v>
+      </c>
+      <c r="B222" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="5">
+        <v>27973</v>
+      </c>
+      <c r="B223" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="5">
+        <v>28004</v>
+      </c>
+      <c r="B224" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="5">
+        <v>28034</v>
+      </c>
+      <c r="B225" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="5">
+        <v>28065</v>
+      </c>
+      <c r="B226" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="5">
+        <v>28095</v>
+      </c>
+      <c r="B227" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="5">
+        <v>28126</v>
+      </c>
+      <c r="B228" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="5">
+        <v>28157</v>
+      </c>
+      <c r="B229" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="5">
+        <v>28185</v>
+      </c>
+      <c r="B230" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="5">
+        <v>28216</v>
+      </c>
+      <c r="B231" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="5">
+        <v>28246</v>
+      </c>
+      <c r="B232" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="5">
+        <v>28277</v>
+      </c>
+      <c r="B233" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="5">
+        <v>28307</v>
+      </c>
+      <c r="B234" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="5">
+        <v>28338</v>
+      </c>
+      <c r="B235" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="5">
+        <v>28369</v>
+      </c>
+      <c r="B236" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="5">
+        <v>28399</v>
+      </c>
+      <c r="B237" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="5">
+        <v>28430</v>
+      </c>
+      <c r="B238" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="5">
+        <v>28460</v>
+      </c>
+      <c r="B239" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="5">
+        <v>28491</v>
+      </c>
+      <c r="B240" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="5">
+        <v>28522</v>
+      </c>
+      <c r="B241" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="5">
+        <v>28550</v>
+      </c>
+      <c r="B242" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="5">
+        <v>28581</v>
+      </c>
+      <c r="B243" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="5">
+        <v>28611</v>
+      </c>
+      <c r="B244" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="5">
+        <v>28642</v>
+      </c>
+      <c r="B245" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="5">
+        <v>28672</v>
+      </c>
+      <c r="B246" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="5">
+        <v>28703</v>
+      </c>
+      <c r="B247" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="5">
+        <v>28734</v>
+      </c>
+      <c r="B248" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="5">
+        <v>28764</v>
+      </c>
+      <c r="B249" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="5">
+        <v>28795</v>
+      </c>
+      <c r="B250" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="5">
+        <v>28825</v>
+      </c>
+      <c r="B251" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="5">
+        <v>28856</v>
+      </c>
+      <c r="B252" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="5">
+        <v>28887</v>
+      </c>
+      <c r="B253" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="5">
+        <v>28915</v>
+      </c>
+      <c r="B254" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="5">
+        <v>28946</v>
+      </c>
+      <c r="B255" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="5">
+        <v>28976</v>
+      </c>
+      <c r="B256" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="5">
+        <v>29007</v>
+      </c>
+      <c r="B257" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="5">
+        <v>29037</v>
+      </c>
+      <c r="B258" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="5">
+        <v>29068</v>
+      </c>
+      <c r="B259" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="5">
+        <v>29099</v>
+      </c>
+      <c r="B260" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="5">
+        <v>29129</v>
+      </c>
+      <c r="B261" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="5">
+        <v>29160</v>
+      </c>
+      <c r="B262" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="5">
+        <v>29190</v>
+      </c>
+      <c r="B263" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="5">
+        <v>29221</v>
+      </c>
+      <c r="B264" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="5">
+        <v>29252</v>
+      </c>
+      <c r="B265" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="5">
+        <v>29281</v>
+      </c>
+      <c r="B266" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="5">
+        <v>29312</v>
+      </c>
+      <c r="B267" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="5">
+        <v>29342</v>
+      </c>
+      <c r="B268" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="5">
+        <v>29373</v>
+      </c>
+      <c r="B269" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="5">
+        <v>29403</v>
+      </c>
+      <c r="B270" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="5">
+        <v>29434</v>
+      </c>
+      <c r="B271" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="5">
+        <v>29465</v>
+      </c>
+      <c r="B272" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="5">
+        <v>29495</v>
+      </c>
+      <c r="B273" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="5">
+        <v>29526</v>
+      </c>
+      <c r="B274" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="5">
+        <v>29556</v>
+      </c>
+      <c r="B275" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="5">
+        <v>29587</v>
+      </c>
+      <c r="B276" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="5">
+        <v>29618</v>
+      </c>
+      <c r="B277" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="5">
+        <v>29646</v>
+      </c>
+      <c r="B278" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="5">
+        <v>29677</v>
+      </c>
+      <c r="B279" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="5">
+        <v>29707</v>
+      </c>
+      <c r="B280" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="5">
+        <v>29738</v>
+      </c>
+      <c r="B281" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="5">
+        <v>29768</v>
+      </c>
+      <c r="B282" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="5">
+        <v>29799</v>
+      </c>
+      <c r="B283" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="5">
+        <v>29830</v>
+      </c>
+      <c r="B284" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="5">
+        <v>29860</v>
+      </c>
+      <c r="B285" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="5">
+        <v>29891</v>
+      </c>
+      <c r="B286" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="5">
+        <v>29921</v>
+      </c>
+      <c r="B287" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="5">
+        <v>29952</v>
+      </c>
+      <c r="B288" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="5">
+        <v>29983</v>
+      </c>
+      <c r="B289" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="5">
+        <v>30011</v>
+      </c>
+      <c r="B290" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="5">
+        <v>30042</v>
+      </c>
+      <c r="B291" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="5">
+        <v>30072</v>
+      </c>
+      <c r="B292" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="5">
+        <v>30103</v>
+      </c>
+      <c r="B293" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="5">
+        <v>30133</v>
+      </c>
+      <c r="B294" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="5">
+        <v>30164</v>
+      </c>
+      <c r="B295" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="5">
+        <v>30195</v>
+      </c>
+      <c r="B296" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="5">
+        <v>30225</v>
+      </c>
+      <c r="B297" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="5">
+        <v>30256</v>
+      </c>
+      <c r="B298" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="5">
+        <v>30286</v>
+      </c>
+      <c r="B299" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="5">
+        <v>30317</v>
+      </c>
+      <c r="B300" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="5">
+        <v>30348</v>
+      </c>
+      <c r="B301" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="5">
+        <v>30376</v>
+      </c>
+      <c r="B302" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="5">
+        <v>30407</v>
+      </c>
+      <c r="B303" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="5">
+        <v>30437</v>
+      </c>
+      <c r="B304" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="5">
+        <v>30468</v>
+      </c>
+      <c r="B305" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="5">
+        <v>30498</v>
+      </c>
+      <c r="B306" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="5">
+        <v>30529</v>
+      </c>
+      <c r="B307" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="5">
+        <v>30560</v>
+      </c>
+      <c r="B308" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="5">
+        <v>30590</v>
+      </c>
+      <c r="B309" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="5">
+        <v>30621</v>
+      </c>
+      <c r="B310" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="5">
+        <v>30651</v>
+      </c>
+      <c r="B311" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="5">
+        <v>30682</v>
+      </c>
+      <c r="B312" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="5">
+        <v>30713</v>
+      </c>
+      <c r="B313" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="5">
+        <v>30742</v>
+      </c>
+      <c r="B314" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="5">
+        <v>30773</v>
+      </c>
+      <c r="B315" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="5">
+        <v>30803</v>
+      </c>
+      <c r="B316" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="5">
+        <v>30834</v>
+      </c>
+      <c r="B317" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="5">
+        <v>30864</v>
+      </c>
+      <c r="B318" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="5">
+        <v>30895</v>
+      </c>
+      <c r="B319" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="5">
+        <v>30926</v>
+      </c>
+      <c r="B320" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="5">
+        <v>30956</v>
+      </c>
+      <c r="B321" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="5">
+        <v>30987</v>
+      </c>
+      <c r="B322" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="5">
+        <v>31017</v>
+      </c>
+      <c r="B323" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="5">
+        <v>31048</v>
+      </c>
+      <c r="B324" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="5">
+        <v>31079</v>
+      </c>
+      <c r="B325" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="5">
+        <v>31107</v>
+      </c>
+      <c r="B326" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="5">
+        <v>31138</v>
+      </c>
+      <c r="B327" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="5">
+        <v>31168</v>
+      </c>
+      <c r="B328" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="5">
+        <v>31199</v>
+      </c>
+      <c r="B329" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="5">
+        <v>31229</v>
+      </c>
+      <c r="B330" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="5">
+        <v>31260</v>
+      </c>
+      <c r="B331" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="5">
+        <v>31291</v>
+      </c>
+      <c r="B332" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="5">
+        <v>31321</v>
+      </c>
+      <c r="B333" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="5">
+        <v>31352</v>
+      </c>
+      <c r="B334" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="5">
+        <v>31382</v>
+      </c>
+      <c r="B335" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="5">
+        <v>31413</v>
+      </c>
+      <c r="B336" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="5">
+        <v>31444</v>
+      </c>
+      <c r="B337" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="5">
+        <v>31472</v>
+      </c>
+      <c r="B338" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="5">
+        <v>31503</v>
+      </c>
+      <c r="B339" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="5">
+        <v>31533</v>
+      </c>
+      <c r="B340" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="5">
+        <v>31564</v>
+      </c>
+      <c r="B341" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="5">
+        <v>31594</v>
+      </c>
+      <c r="B342" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="5">
+        <v>31625</v>
+      </c>
+      <c r="B343" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="5">
+        <v>31656</v>
+      </c>
+      <c r="B344" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="5">
+        <v>31686</v>
+      </c>
+      <c r="B345" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="5">
+        <v>31717</v>
+      </c>
+      <c r="B346" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="5">
+        <v>31747</v>
+      </c>
+      <c r="B347" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="5">
+        <v>31778</v>
+      </c>
+      <c r="B348" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="5">
+        <v>31809</v>
+      </c>
+      <c r="B349" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="5">
+        <v>31837</v>
+      </c>
+      <c r="B350" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="5">
+        <v>31868</v>
+      </c>
+      <c r="B351" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="5">
+        <v>31898</v>
+      </c>
+      <c r="B352" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="5">
+        <v>31929</v>
+      </c>
+      <c r="B353" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="5">
+        <v>31959</v>
+      </c>
+      <c r="B354" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="5">
+        <v>31990</v>
+      </c>
+      <c r="B355" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="5">
+        <v>32021</v>
+      </c>
+      <c r="B356" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="5">
+        <v>32051</v>
+      </c>
+      <c r="B357" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="5">
+        <v>32082</v>
+      </c>
+      <c r="B358" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="5">
+        <v>32112</v>
+      </c>
+      <c r="B359" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="5">
+        <v>32143</v>
+      </c>
+      <c r="B360" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="5">
+        <v>32174</v>
+      </c>
+      <c r="B361" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="5">
+        <v>32203</v>
+      </c>
+      <c r="B362" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="5">
+        <v>32234</v>
+      </c>
+      <c r="B363" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="5">
+        <v>32264</v>
+      </c>
+      <c r="B364" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="5">
+        <v>32295</v>
+      </c>
+      <c r="B365" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="5">
+        <v>32325</v>
+      </c>
+      <c r="B366" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="5">
+        <v>32356</v>
+      </c>
+      <c r="B367" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="5">
+        <v>32387</v>
+      </c>
+      <c r="B368" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="5">
+        <v>32417</v>
+      </c>
+      <c r="B369" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="5">
+        <v>32448</v>
+      </c>
+      <c r="B370" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="5">
+        <v>32478</v>
+      </c>
+      <c r="B371" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="5">
+        <v>32509</v>
+      </c>
+      <c r="B372" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="5">
+        <v>32540</v>
+      </c>
+      <c r="B373" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="5">
+        <v>32568</v>
+      </c>
+      <c r="B374" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="5">
+        <v>32599</v>
+      </c>
+      <c r="B375" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="5">
+        <v>32629</v>
+      </c>
+      <c r="B376" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="5">
+        <v>32660</v>
+      </c>
+      <c r="B377" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="5">
+        <v>32690</v>
+      </c>
+      <c r="B378" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="5">
+        <v>32721</v>
+      </c>
+      <c r="B379" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="5">
+        <v>32752</v>
+      </c>
+      <c r="B380" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="5">
+        <v>32782</v>
+      </c>
+      <c r="B381" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="5">
+        <v>32813</v>
+      </c>
+      <c r="B382" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="5">
+        <v>32843</v>
+      </c>
+      <c r="B383" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="5">
+        <v>32874</v>
+      </c>
+      <c r="B384" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="5">
+        <v>32905</v>
+      </c>
+      <c r="B385" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="5">
+        <v>32933</v>
+      </c>
+      <c r="B386" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="5">
+        <v>32964</v>
+      </c>
+      <c r="B387" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="5">
+        <v>32994</v>
+      </c>
+      <c r="B388" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="5">
+        <v>33025</v>
+      </c>
+      <c r="B389" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="5">
+        <v>33055</v>
+      </c>
+      <c r="B390" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="5">
+        <v>33086</v>
+      </c>
+      <c r="B391" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="5">
+        <v>33117</v>
+      </c>
+      <c r="B392" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="5">
+        <v>33147</v>
+      </c>
+      <c r="B393" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="5">
+        <v>33178</v>
+      </c>
+      <c r="B394" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="5">
+        <v>33208</v>
+      </c>
+      <c r="B395" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="5">
+        <v>33239</v>
+      </c>
+      <c r="B396" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="5">
+        <v>33270</v>
+      </c>
+      <c r="B397" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="5">
+        <v>33298</v>
+      </c>
+      <c r="B398" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="5">
+        <v>33329</v>
+      </c>
+      <c r="B399" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="5">
+        <v>33359</v>
+      </c>
+      <c r="B400" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="5">
+        <v>33390</v>
+      </c>
+      <c r="B401" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="5">
+        <v>33420</v>
+      </c>
+      <c r="B402" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="5">
+        <v>33451</v>
+      </c>
+      <c r="B403" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="5">
+        <v>33482</v>
+      </c>
+      <c r="B404" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="5">
+        <v>33512</v>
+      </c>
+      <c r="B405" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="5">
+        <v>33543</v>
+      </c>
+      <c r="B406" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="5">
+        <v>33573</v>
+      </c>
+      <c r="B407" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="5">
+        <v>33604</v>
+      </c>
+      <c r="B408" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="5">
+        <v>33635</v>
+      </c>
+      <c r="B409" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="5">
+        <v>33664</v>
+      </c>
+      <c r="B410" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="5">
+        <v>33695</v>
+      </c>
+      <c r="B411" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="5">
+        <v>33725</v>
+      </c>
+      <c r="B412" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="5">
+        <v>33756</v>
+      </c>
+      <c r="B413" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="5">
+        <v>33786</v>
+      </c>
+      <c r="B414" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="5">
+        <v>33817</v>
+      </c>
+      <c r="B415" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="5">
+        <v>33848</v>
+      </c>
+      <c r="B416" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="5">
+        <v>33878</v>
+      </c>
+      <c r="B417" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="5">
+        <v>33909</v>
+      </c>
+      <c r="B418" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="5">
+        <v>33939</v>
+      </c>
+      <c r="B419" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="5">
+        <v>33970</v>
+      </c>
+      <c r="B420" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="5">
+        <v>34001</v>
+      </c>
+      <c r="B421" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="5">
+        <v>34029</v>
+      </c>
+      <c r="B422" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="5">
+        <v>34060</v>
+      </c>
+      <c r="B423" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="5">
+        <v>34090</v>
+      </c>
+      <c r="B424" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="5">
+        <v>34121</v>
+      </c>
+      <c r="B425" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="5">
+        <v>34151</v>
+      </c>
+      <c r="B426" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="5">
+        <v>34182</v>
+      </c>
+      <c r="B427" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="5">
+        <v>34213</v>
+      </c>
+      <c r="B428" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="5">
+        <v>34243</v>
+      </c>
+      <c r="B429" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="5">
+        <v>34274</v>
+      </c>
+      <c r="B430" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="5">
+        <v>34304</v>
+      </c>
+      <c r="B431" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="5">
+        <v>34335</v>
+      </c>
+      <c r="B432" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="5">
+        <v>34366</v>
+      </c>
+      <c r="B433" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="5">
+        <v>34394</v>
+      </c>
+      <c r="B434" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="5">
+        <v>34425</v>
+      </c>
+      <c r="B435" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="5">
+        <v>34455</v>
+      </c>
+      <c r="B436" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="5">
+        <v>34486</v>
+      </c>
+      <c r="B437" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="5">
+        <v>34516</v>
+      </c>
+      <c r="B438" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="5">
+        <v>34547</v>
+      </c>
+      <c r="B439" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="5">
+        <v>34578</v>
+      </c>
+      <c r="B440" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="5">
+        <v>34608</v>
+      </c>
+      <c r="B441" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="5">
+        <v>34639</v>
+      </c>
+      <c r="B442" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="5">
+        <v>34669</v>
+      </c>
+      <c r="B443" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="5">
+        <v>34700</v>
+      </c>
+      <c r="B444" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="5">
+        <v>34731</v>
+      </c>
+      <c r="B445" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="5">
+        <v>34759</v>
+      </c>
+      <c r="B446" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="5">
+        <v>34790</v>
+      </c>
+      <c r="B447" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="5">
+        <v>34820</v>
+      </c>
+      <c r="B448" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="5">
+        <v>34851</v>
+      </c>
+      <c r="B449" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="5">
+        <v>34881</v>
+      </c>
+      <c r="B450" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="5">
+        <v>34912</v>
+      </c>
+      <c r="B451" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="5">
+        <v>34943</v>
+      </c>
+      <c r="B452" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="5">
+        <v>34973</v>
+      </c>
+      <c r="B453" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="5">
+        <v>35004</v>
+      </c>
+      <c r="B454" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="5">
+        <v>35034</v>
+      </c>
+      <c r="B455" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="5">
+        <v>35065</v>
+      </c>
+      <c r="B456" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="5">
+        <v>35096</v>
+      </c>
+      <c r="B457" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="5">
+        <v>35125</v>
+      </c>
+      <c r="B458" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="5">
+        <v>35156</v>
+      </c>
+      <c r="B459" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="5">
+        <v>35186</v>
+      </c>
+      <c r="B460" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="5">
+        <v>35217</v>
+      </c>
+      <c r="B461" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="5">
+        <v>35247</v>
+      </c>
+      <c r="B462" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="5">
+        <v>35278</v>
+      </c>
+      <c r="B463" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="5">
+        <v>35309</v>
+      </c>
+      <c r="B464" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="5">
+        <v>35339</v>
+      </c>
+      <c r="B465" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="5">
+        <v>35370</v>
+      </c>
+      <c r="B466" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="5">
+        <v>35400</v>
+      </c>
+      <c r="B467" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="5">
+        <v>35431</v>
+      </c>
+      <c r="B468" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="5">
+        <v>35462</v>
+      </c>
+      <c r="B469" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="5">
+        <v>35490</v>
+      </c>
+      <c r="B470" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="5">
+        <v>35521</v>
+      </c>
+      <c r="B471" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="5">
+        <v>35551</v>
+      </c>
+      <c r="B472" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="5">
+        <v>35582</v>
+      </c>
+      <c r="B473" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="5">
+        <v>35612</v>
+      </c>
+      <c r="B474" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="5">
+        <v>35643</v>
+      </c>
+      <c r="B475" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="5">
+        <v>35674</v>
+      </c>
+      <c r="B476" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="5">
+        <v>35704</v>
+      </c>
+      <c r="B477" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="5">
+        <v>35735</v>
+      </c>
+      <c r="B478" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B479" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="5">
+        <v>35796</v>
+      </c>
+      <c r="B480" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="5">
+        <v>35827</v>
+      </c>
+      <c r="B481" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="5">
+        <v>35855</v>
+      </c>
+      <c r="B482" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="5">
+        <v>35886</v>
+      </c>
+      <c r="B483" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="5">
+        <v>35916</v>
+      </c>
+      <c r="B484" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="5">
+        <v>35947</v>
+      </c>
+      <c r="B485" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="5">
+        <v>35977</v>
+      </c>
+      <c r="B486" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="5">
+        <v>36008</v>
+      </c>
+      <c r="B487" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="5">
+        <v>36039</v>
+      </c>
+      <c r="B488" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="5">
+        <v>36069</v>
+      </c>
+      <c r="B489" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="5">
+        <v>36100</v>
+      </c>
+      <c r="B490" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="5">
+        <v>36130</v>
+      </c>
+      <c r="B491" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="5">
+        <v>36161</v>
+      </c>
+      <c r="B492" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="5">
+        <v>36192</v>
+      </c>
+      <c r="B493" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="5">
+        <v>36220</v>
+      </c>
+      <c r="B494" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="5">
+        <v>36251</v>
+      </c>
+      <c r="B495" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="5">
+        <v>36281</v>
+      </c>
+      <c r="B496" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="5">
+        <v>36312</v>
+      </c>
+      <c r="B497" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="5">
+        <v>36342</v>
+      </c>
+      <c r="B498" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="5">
+        <v>36373</v>
+      </c>
+      <c r="B499" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="5">
+        <v>36404</v>
+      </c>
+      <c r="B500" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="5">
+        <v>36434</v>
+      </c>
+      <c r="B501" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="5">
+        <v>36465</v>
+      </c>
+      <c r="B502" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B503" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="5">
+        <v>36526</v>
+      </c>
+      <c r="B504" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="5">
+        <v>36557</v>
+      </c>
+      <c r="B505" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="5">
+        <v>36586</v>
+      </c>
+      <c r="B506" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="5">
+        <v>36617</v>
+      </c>
+      <c r="B507" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="5">
+        <v>36647</v>
+      </c>
+      <c r="B508" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="5">
+        <v>36678</v>
+      </c>
+      <c r="B509" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="5">
+        <v>36708</v>
+      </c>
+      <c r="B510" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="5">
+        <v>36739</v>
+      </c>
+      <c r="B511" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="5">
+        <v>36770</v>
+      </c>
+      <c r="B512" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="5">
+        <v>36800</v>
+      </c>
+      <c r="B513" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="5">
+        <v>36831</v>
+      </c>
+      <c r="B514" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B515" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="5">
+        <v>36892</v>
+      </c>
+      <c r="B516" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="5">
+        <v>36923</v>
+      </c>
+      <c r="B517" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="5">
+        <v>36951</v>
+      </c>
+      <c r="B518" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="5">
+        <v>36982</v>
+      </c>
+      <c r="B519" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="5">
+        <v>37012</v>
+      </c>
+      <c r="B520" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="5">
+        <v>37043</v>
+      </c>
+      <c r="B521" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="5">
+        <v>37073</v>
+      </c>
+      <c r="B522" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="5">
+        <v>37104</v>
+      </c>
+      <c r="B523" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="5">
+        <v>37135</v>
+      </c>
+      <c r="B524" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="5">
+        <v>37165</v>
+      </c>
+      <c r="B525" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="5">
+        <v>37196</v>
+      </c>
+      <c r="B526" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B527" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="5">
+        <v>37257</v>
+      </c>
+      <c r="B528" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="5">
+        <v>37288</v>
+      </c>
+      <c r="B529" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="5">
+        <v>37316</v>
+      </c>
+      <c r="B530" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="5">
+        <v>37347</v>
+      </c>
+      <c r="B531" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="5">
+        <v>37377</v>
+      </c>
+      <c r="B532" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="5">
+        <v>37408</v>
+      </c>
+      <c r="B533" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="5">
+        <v>37438</v>
+      </c>
+      <c r="B534" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="5">
+        <v>37469</v>
+      </c>
+      <c r="B535" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="5">
+        <v>37500</v>
+      </c>
+      <c r="B536" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="5">
+        <v>37530</v>
+      </c>
+      <c r="B537" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="5">
+        <v>37561</v>
+      </c>
+      <c r="B538" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B539" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="5">
+        <v>37622</v>
+      </c>
+      <c r="B540" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="5">
+        <v>37653</v>
+      </c>
+      <c r="B541" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="5">
+        <v>37681</v>
+      </c>
+      <c r="B542" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="5">
+        <v>37712</v>
+      </c>
+      <c r="B543" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="5">
+        <v>37742</v>
+      </c>
+      <c r="B544" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="5">
+        <v>37773</v>
+      </c>
+      <c r="B545" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="5">
+        <v>37803</v>
+      </c>
+      <c r="B546" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="5">
+        <v>37834</v>
+      </c>
+      <c r="B547" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="5">
+        <v>37865</v>
+      </c>
+      <c r="B548" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="5">
+        <v>37895</v>
+      </c>
+      <c r="B549" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="5">
+        <v>37926</v>
+      </c>
+      <c r="B550" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B551" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="5">
+        <v>37987</v>
+      </c>
+      <c r="B552" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="5">
+        <v>38018</v>
+      </c>
+      <c r="B553" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="5">
+        <v>38047</v>
+      </c>
+      <c r="B554" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="5">
+        <v>38078</v>
+      </c>
+      <c r="B555" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="5">
+        <v>38108</v>
+      </c>
+      <c r="B556" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="5">
+        <v>38139</v>
+      </c>
+      <c r="B557" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="5">
+        <v>38169</v>
+      </c>
+      <c r="B558" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="5">
+        <v>38200</v>
+      </c>
+      <c r="B559" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="5">
+        <v>38231</v>
+      </c>
+      <c r="B560" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="5">
+        <v>38261</v>
+      </c>
+      <c r="B561" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="5">
+        <v>38292</v>
+      </c>
+      <c r="B562" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B563" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="5">
+        <v>38353</v>
+      </c>
+      <c r="B564" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="5">
+        <v>38384</v>
+      </c>
+      <c r="B565" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="5">
+        <v>38412</v>
+      </c>
+      <c r="B566" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="5">
+        <v>38443</v>
+      </c>
+      <c r="B567" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="5">
+        <v>38473</v>
+      </c>
+      <c r="B568" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="5">
+        <v>38504</v>
+      </c>
+      <c r="B569" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="5">
+        <v>38534</v>
+      </c>
+      <c r="B570" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="5">
+        <v>38565</v>
+      </c>
+      <c r="B571" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="5">
+        <v>38596</v>
+      </c>
+      <c r="B572" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="5">
+        <v>38626</v>
+      </c>
+      <c r="B573" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="5">
+        <v>38657</v>
+      </c>
+      <c r="B574" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B575" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="5">
+        <v>38718</v>
+      </c>
+      <c r="B576" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="5">
+        <v>38749</v>
+      </c>
+      <c r="B577" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="5">
+        <v>38777</v>
+      </c>
+      <c r="B578" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="5">
+        <v>38808</v>
+      </c>
+      <c r="B579" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="5">
+        <v>38838</v>
+      </c>
+      <c r="B580" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" s="5">
+        <v>38869</v>
+      </c>
+      <c r="B581" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="5">
+        <v>38899</v>
+      </c>
+      <c r="B582" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="5">
+        <v>38930</v>
+      </c>
+      <c r="B583" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" s="5">
+        <v>38961</v>
+      </c>
+      <c r="B584" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" s="5">
+        <v>38991</v>
+      </c>
+      <c r="B585" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" s="5">
+        <v>39022</v>
+      </c>
+      <c r="B586" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" s="5">
+        <v>39052</v>
+      </c>
+      <c r="B587" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" s="5">
+        <v>39083</v>
+      </c>
+      <c r="B588" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" s="5">
+        <v>39114</v>
+      </c>
+      <c r="B589" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" s="5">
+        <v>39142</v>
+      </c>
+      <c r="B590" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" s="5">
+        <v>39173</v>
+      </c>
+      <c r="B591" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" s="5">
+        <v>39203</v>
+      </c>
+      <c r="B592" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593" s="5">
+        <v>39234</v>
+      </c>
+      <c r="B593" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594" s="5">
+        <v>39264</v>
+      </c>
+      <c r="B594" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595" s="5">
+        <v>39295</v>
+      </c>
+      <c r="B595" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596" s="5">
+        <v>39326</v>
+      </c>
+      <c r="B596" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597" s="5">
+        <v>39356</v>
+      </c>
+      <c r="B597" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598" s="5">
+        <v>39387</v>
+      </c>
+      <c r="B598" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599" s="5">
+        <v>39417</v>
+      </c>
+      <c r="B599" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600" s="5">
+        <v>39448</v>
+      </c>
+      <c r="B600" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601" s="5">
+        <v>39479</v>
+      </c>
+      <c r="B601" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A602" s="5">
+        <v>39508</v>
+      </c>
+      <c r="B602" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A603" s="5">
+        <v>39539</v>
+      </c>
+      <c r="B603" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A604" s="5">
+        <v>39569</v>
+      </c>
+      <c r="B604" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A605" s="5">
+        <v>39600</v>
+      </c>
+      <c r="B605" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A606" s="5">
+        <v>39630</v>
+      </c>
+      <c r="B606" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A607" s="5">
+        <v>39661</v>
+      </c>
+      <c r="B607" s="6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A608" s="5">
+        <v>39692</v>
+      </c>
+      <c r="B608" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A609" s="5">
+        <v>39722</v>
+      </c>
+      <c r="B609" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A610" s="5">
+        <v>39753</v>
+      </c>
+      <c r="B610" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A611" s="5">
+        <v>39783</v>
+      </c>
+      <c r="B611" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A612" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B612" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A613" s="5">
+        <v>39845</v>
+      </c>
+      <c r="B613" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A614" s="5">
+        <v>39873</v>
+      </c>
+      <c r="B614" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A615" s="5">
+        <v>39904</v>
+      </c>
+      <c r="B615" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A616" s="5">
+        <v>39934</v>
+      </c>
+      <c r="B616" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A617" s="5">
+        <v>39965</v>
+      </c>
+      <c r="B617" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A618" s="5">
+        <v>39995</v>
+      </c>
+      <c r="B618" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A619" s="5">
+        <v>40026</v>
+      </c>
+      <c r="B619" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A620" s="5">
+        <v>40057</v>
+      </c>
+      <c r="B620" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A621" s="5">
+        <v>40087</v>
+      </c>
+      <c r="B621" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A622" s="5">
+        <v>40118</v>
+      </c>
+      <c r="B622" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A623" s="5">
+        <v>40148</v>
+      </c>
+      <c r="B623" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A624" s="5">
+        <v>40179</v>
+      </c>
+      <c r="B624" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" s="5">
+        <v>40210</v>
+      </c>
+      <c r="B625" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626" s="5">
+        <v>40238</v>
+      </c>
+      <c r="B626" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627" s="5">
+        <v>40269</v>
+      </c>
+      <c r="B627" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628" s="5">
+        <v>40299</v>
+      </c>
+      <c r="B628" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629" s="5">
+        <v>40330</v>
+      </c>
+      <c r="B629" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630" s="5">
+        <v>40360</v>
+      </c>
+      <c r="B630" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631" s="5">
+        <v>40391</v>
+      </c>
+      <c r="B631" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632" s="5">
+        <v>40422</v>
+      </c>
+      <c r="B632" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633" s="5">
+        <v>40452</v>
+      </c>
+      <c r="B633" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634" s="5">
+        <v>40483</v>
+      </c>
+      <c r="B634" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635" s="5">
+        <v>40513</v>
+      </c>
+      <c r="B635" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636" s="5">
+        <v>40544</v>
+      </c>
+      <c r="B636" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637" s="5">
+        <v>40575</v>
+      </c>
+      <c r="B637" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638" s="5">
+        <v>40603</v>
+      </c>
+      <c r="B638" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639" s="5">
+        <v>40634</v>
+      </c>
+      <c r="B639" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640" s="5">
+        <v>40664</v>
+      </c>
+      <c r="B640" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641" s="5">
+        <v>40695</v>
+      </c>
+      <c r="B641" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" s="5">
+        <v>40725</v>
+      </c>
+      <c r="B642" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" s="5">
+        <v>40756</v>
+      </c>
+      <c r="B643" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" s="5">
+        <v>40787</v>
+      </c>
+      <c r="B644" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" s="5">
+        <v>40817</v>
+      </c>
+      <c r="B645" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646" s="5">
+        <v>40848</v>
+      </c>
+      <c r="B646" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647" s="5">
+        <v>40878</v>
+      </c>
+      <c r="B647" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648" s="5">
+        <v>40909</v>
+      </c>
+      <c r="B648" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649" s="5">
+        <v>40940</v>
+      </c>
+      <c r="B649" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650" s="5">
+        <v>40969</v>
+      </c>
+      <c r="B650" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651" s="5">
+        <v>41000</v>
+      </c>
+      <c r="B651" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652" s="5">
+        <v>41030</v>
+      </c>
+      <c r="B652" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653" s="5">
+        <v>41061</v>
+      </c>
+      <c r="B653" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654" s="5">
+        <v>41091</v>
+      </c>
+      <c r="B654" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655" s="5">
+        <v>41122</v>
+      </c>
+      <c r="B655" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656" s="5">
+        <v>41153</v>
+      </c>
+      <c r="B656" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657" s="5">
+        <v>41183</v>
+      </c>
+      <c r="B657" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658" s="5">
+        <v>41214</v>
+      </c>
+      <c r="B658" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659" s="5">
+        <v>41244</v>
+      </c>
+      <c r="B659" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660" s="5">
+        <v>41275</v>
+      </c>
+      <c r="B660" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661" s="5">
+        <v>41306</v>
+      </c>
+      <c r="B661" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662" s="5">
+        <v>41334</v>
+      </c>
+      <c r="B662" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663" s="5">
+        <v>41365</v>
+      </c>
+      <c r="B663" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664" s="5">
+        <v>41395</v>
+      </c>
+      <c r="B664" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665" s="5">
+        <v>41426</v>
+      </c>
+      <c r="B665" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666" s="5">
+        <v>41456</v>
+      </c>
+      <c r="B666" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667" s="5">
+        <v>41487</v>
+      </c>
+      <c r="B667" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668" s="5">
+        <v>41518</v>
+      </c>
+      <c r="B668" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669" s="5">
+        <v>41548</v>
+      </c>
+      <c r="B669" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670" s="5">
+        <v>41579</v>
+      </c>
+      <c r="B670" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671" s="5">
+        <v>41609</v>
+      </c>
+      <c r="B671" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672" s="5">
+        <v>41640</v>
+      </c>
+      <c r="B672" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673" s="5">
+        <v>41671</v>
+      </c>
+      <c r="B673" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674" s="5">
+        <v>41699</v>
+      </c>
+      <c r="B674" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675" s="5">
+        <v>41730</v>
+      </c>
+      <c r="B675" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676" s="5">
+        <v>41760</v>
+      </c>
+      <c r="B676" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677" s="5">
+        <v>41791</v>
+      </c>
+      <c r="B677" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678" s="5">
+        <v>41821</v>
+      </c>
+      <c r="B678" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679" s="5">
+        <v>41852</v>
+      </c>
+      <c r="B679" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" s="5">
+        <v>41883</v>
+      </c>
+      <c r="B680" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" s="5">
+        <v>41913</v>
+      </c>
+      <c r="B681" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" s="5">
+        <v>41944</v>
+      </c>
+      <c r="B682" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" s="5">
+        <v>41974</v>
+      </c>
+      <c r="B683" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" s="5">
+        <v>42005</v>
+      </c>
+      <c r="B684" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" s="5">
+        <v>42036</v>
+      </c>
+      <c r="B685" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" s="5">
+        <v>42064</v>
+      </c>
+      <c r="B686" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" s="5">
+        <v>42095</v>
+      </c>
+      <c r="B687" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" s="5">
+        <v>42125</v>
+      </c>
+      <c r="B688" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" s="5">
+        <v>42156</v>
+      </c>
+      <c r="B689" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" s="5">
+        <v>42186</v>
+      </c>
+      <c r="B690" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" s="5">
+        <v>42217</v>
+      </c>
+      <c r="B691" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" s="5">
+        <v>42248</v>
+      </c>
+      <c r="B692" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" s="5">
+        <v>42278</v>
+      </c>
+      <c r="B693" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" s="5">
+        <v>42309</v>
+      </c>
+      <c r="B694" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" s="5">
+        <v>42339</v>
+      </c>
+      <c r="B695" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" s="5">
+        <v>42370</v>
+      </c>
+      <c r="B696" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" s="5">
+        <v>42401</v>
+      </c>
+      <c r="B697" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" s="5">
+        <v>42430</v>
+      </c>
+      <c r="B698" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" s="5">
+        <v>42461</v>
+      </c>
+      <c r="B699" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" s="5">
+        <v>42491</v>
+      </c>
+      <c r="B700" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" s="5">
+        <v>42522</v>
+      </c>
+      <c r="B701" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" s="5">
+        <v>42552</v>
+      </c>
+      <c r="B702" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="5">
+        <v>42583</v>
+      </c>
+      <c r="B703" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="5">
+        <v>42614</v>
+      </c>
+      <c r="B704" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" s="5">
+        <v>42644</v>
+      </c>
+      <c r="B705" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" s="5">
+        <v>42675</v>
+      </c>
+      <c r="B706" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" s="5">
+        <v>42705</v>
+      </c>
+      <c r="B707" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" s="5">
+        <v>42736</v>
+      </c>
+      <c r="B708" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" s="5">
+        <v>42767</v>
+      </c>
+      <c r="B709" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" s="5">
+        <v>42795</v>
+      </c>
+      <c r="B710" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B711" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" s="5">
+        <v>42856</v>
+      </c>
+      <c r="B712" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B713" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" s="5">
+        <v>42917</v>
+      </c>
+      <c r="B714" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" s="5">
+        <v>42948</v>
+      </c>
+      <c r="B715" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" s="5">
+        <v>42979</v>
+      </c>
+      <c r="B716" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" s="5">
+        <v>43009</v>
+      </c>
+      <c r="B717" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" s="5">
+        <v>43040</v>
+      </c>
+      <c r="B718" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" s="5">
+        <v>43070</v>
+      </c>
+      <c r="B719" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" s="5">
+        <v>43101</v>
+      </c>
+      <c r="B720" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" s="5">
+        <v>43132</v>
+      </c>
+      <c r="B721" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" s="5">
+        <v>43160</v>
+      </c>
+      <c r="B722" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" s="5">
+        <v>43191</v>
+      </c>
+      <c r="B723" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" s="5">
+        <v>43221</v>
+      </c>
+      <c r="B724" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" s="5">
+        <v>43252</v>
+      </c>
+      <c r="B725" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" s="5">
+        <v>43282</v>
+      </c>
+      <c r="B726" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" s="5">
+        <v>43313</v>
+      </c>
+      <c r="B727" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" s="5">
+        <v>43344</v>
+      </c>
+      <c r="B728" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" s="5">
+        <v>43374</v>
+      </c>
+      <c r="B729" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B730" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" s="5">
+        <v>43435</v>
+      </c>
+      <c r="B731" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" s="5">
+        <v>43466</v>
+      </c>
+      <c r="B732" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B733" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" s="5">
+        <v>43525</v>
+      </c>
+      <c r="B734" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" s="5">
+        <v>43556</v>
+      </c>
+      <c r="B735" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" s="5">
+        <v>43586</v>
+      </c>
+      <c r="B736" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" s="5">
+        <v>43617</v>
+      </c>
+      <c r="B737" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" s="5">
+        <v>43647</v>
+      </c>
+      <c r="B738" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B739" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" s="5">
+        <v>43709</v>
+      </c>
+      <c r="B740" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" s="5">
+        <v>43739</v>
+      </c>
+      <c r="B741" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B742" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" s="5">
+        <v>43800</v>
+      </c>
+      <c r="B743" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" s="5">
+        <v>43831</v>
+      </c>
+      <c r="B744" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B745" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" s="5">
+        <v>43891</v>
+      </c>
+      <c r="B746" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B747" s="6">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" s="5">
+        <v>43952</v>
+      </c>
+      <c r="B748" s="6">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B749" s="6">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B750" s="6">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B751" s="6">
+        <v>14.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62343F77-8747-429E-AF0A-8CC97D05A656}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -582,23 +6589,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <f>0.0997</f>
-        <v>9.9699999999999997E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713D08D-3502-4ACD-AA63-81BD7DFAE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5882C-1F7E-4983-B15B-A6C39C4FBEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,14 +505,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,62 +520,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -593,46 +593,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="A648" sqref="A648:XFD648"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -640,12 +638,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -653,7 +651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>21551</v>
       </c>
@@ -661,7 +659,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>21582</v>
       </c>
@@ -669,7 +667,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>21610</v>
       </c>
@@ -677,7 +675,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>21641</v>
       </c>
@@ -685,7 +683,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21671</v>
       </c>
@@ -693,7 +691,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>21702</v>
       </c>
@@ -701,7 +699,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>21732</v>
       </c>
@@ -709,7 +707,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>21763</v>
       </c>
@@ -717,7 +715,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21794</v>
       </c>
@@ -725,7 +723,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>21824</v>
       </c>
@@ -733,7 +731,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21855</v>
       </c>
@@ -741,7 +739,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21885</v>
       </c>
@@ -749,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21916</v>
       </c>
@@ -757,7 +755,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21947</v>
       </c>
@@ -765,7 +763,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21976</v>
       </c>
@@ -773,7 +771,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22007</v>
       </c>
@@ -781,7 +779,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22037</v>
       </c>
@@ -789,7 +787,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>22068</v>
       </c>
@@ -797,7 +795,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>22098</v>
       </c>
@@ -805,7 +803,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>22129</v>
       </c>
@@ -813,7 +811,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22160</v>
       </c>
@@ -821,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>22190</v>
       </c>
@@ -829,7 +827,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>22221</v>
       </c>
@@ -837,7 +835,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>22251</v>
       </c>
@@ -845,7 +843,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>22282</v>
       </c>
@@ -853,7 +851,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>22313</v>
       </c>
@@ -861,7 +859,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>22341</v>
       </c>
@@ -869,7 +867,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>22372</v>
       </c>
@@ -877,7 +875,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>22402</v>
       </c>
@@ -885,7 +883,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>22433</v>
       </c>
@@ -893,7 +891,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>22463</v>
       </c>
@@ -901,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>22494</v>
       </c>
@@ -909,7 +907,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>22525</v>
       </c>
@@ -917,7 +915,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>22555</v>
       </c>
@@ -925,7 +923,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>22586</v>
       </c>
@@ -933,7 +931,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>22616</v>
       </c>
@@ -941,7 +939,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>22647</v>
       </c>
@@ -949,7 +947,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>22678</v>
       </c>
@@ -957,7 +955,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>22706</v>
       </c>
@@ -965,7 +963,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>22737</v>
       </c>
@@ -973,7 +971,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>22767</v>
       </c>
@@ -981,7 +979,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>22798</v>
       </c>
@@ -989,7 +987,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>22828</v>
       </c>
@@ -997,7 +995,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>22859</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>22890</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>22920</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>22951</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>22981</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>23012</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>23043</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>23071</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>23102</v>
       </c>
@@ -1069,7 +1067,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>23132</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>23163</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>23193</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>23224</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>23255</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>23285</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>23316</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>23346</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>23377</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>23408</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>23437</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>23468</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>23498</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>23529</v>
       </c>
@@ -1181,7 +1179,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>23559</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>23590</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>23621</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>23651</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>23682</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>23712</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>23743</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>23774</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>23802</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>23833</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>23863</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>23894</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>23924</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>23955</v>
       </c>
@@ -1293,7 +1291,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>23986</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>24016</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>24047</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>24077</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>24108</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>24139</v>
       </c>
@@ -1341,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>24167</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>24198</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>24228</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>24259</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>24289</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>24320</v>
       </c>
@@ -1389,7 +1387,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>24351</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>24381</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>24412</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>24442</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>24473</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>24504</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>24532</v>
       </c>
@@ -1445,7 +1443,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>24563</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>24593</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>24624</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>24654</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>24685</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>24716</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>24746</v>
       </c>
@@ -1501,7 +1499,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>24777</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>24807</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>24838</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>24869</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>24898</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>24929</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>24959</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>24990</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>25020</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>25051</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>25082</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>25112</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>25143</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>25173</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>25204</v>
       </c>
@@ -1621,7 +1619,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>25235</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>25263</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>25294</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>25324</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>25355</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>25385</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>25416</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>25447</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>25477</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>25508</v>
       </c>
@@ -1701,7 +1699,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>25538</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>25569</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>25600</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>25628</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>25659</v>
       </c>
@@ -1741,7 +1739,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>25689</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>25720</v>
       </c>
@@ -1757,7 +1755,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>25750</v>
       </c>
@@ -1765,7 +1763,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>25781</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>25812</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>25842</v>
       </c>
@@ -1789,7 +1787,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>25873</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>25903</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>25934</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>25965</v>
       </c>
@@ -1821,7 +1819,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>25993</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>26024</v>
       </c>
@@ -1837,7 +1835,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>26054</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>26085</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>26115</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>26146</v>
       </c>
@@ -1869,7 +1867,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>26177</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>26207</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>26238</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>26268</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>26299</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>26330</v>
       </c>
@@ -1917,7 +1915,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>26359</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>26390</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>26420</v>
       </c>
@@ -1941,7 +1939,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>26451</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>26481</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>26512</v>
       </c>
@@ -1965,7 +1963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>26543</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>26573</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>26604</v>
       </c>
@@ -1989,7 +1987,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>26634</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>26665</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>26696</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>26724</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>26755</v>
       </c>
@@ -2029,7 +2027,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>26785</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>26816</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>26846</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>26877</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>26908</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>26938</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>26969</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>26999</v>
       </c>
@@ -2093,7 +2091,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>27030</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>27061</v>
       </c>
@@ -2109,7 +2107,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>27089</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>27120</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>27150</v>
       </c>
@@ -2133,7 +2131,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>27181</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>27211</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>27242</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>27273</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>27303</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>27334</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>27364</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>27395</v>
       </c>
@@ -2197,7 +2195,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>27426</v>
       </c>
@@ -2205,7 +2203,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>27454</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>27485</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>27515</v>
       </c>
@@ -2229,7 +2227,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>27546</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>27576</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>27607</v>
       </c>
@@ -2253,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>27638</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>27668</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>27699</v>
       </c>
@@ -2277,7 +2275,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>27729</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>27760</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>27791</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>27820</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>27851</v>
       </c>
@@ -2317,7 +2315,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>27881</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>27912</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>27942</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>27973</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>28004</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>28034</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>28065</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>28095</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>28126</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>28157</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>28185</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>28216</v>
       </c>
@@ -2413,7 +2411,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>28246</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>28277</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>28307</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>28338</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>28369</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>28399</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>28430</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>28460</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>28491</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>28522</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>28550</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>28581</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>28611</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>28642</v>
       </c>
@@ -2525,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>28672</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>28703</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>28734</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>28764</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>28795</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>28825</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>28856</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>28887</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>28915</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>28946</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>28976</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>29007</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>29037</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>29068</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>29099</v>
       </c>
@@ -2645,7 +2643,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>29129</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>29160</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>29190</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>29221</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>29252</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>29281</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>29312</v>
       </c>
@@ -2701,7 +2699,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>29342</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>29373</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>29403</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>29434</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>29465</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>29495</v>
       </c>
@@ -2749,7 +2747,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>29526</v>
       </c>
@@ -2757,7 +2755,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>29556</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>29587</v>
       </c>
@@ -2773,7 +2771,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>29618</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>29646</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>29677</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>29707</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>29738</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>29768</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>29799</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>29830</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>29860</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>29891</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>29921</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>29952</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>29983</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>30011</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>30042</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>30072</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>30103</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>30133</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>30164</v>
       </c>
@@ -2925,7 +2923,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>30195</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>30225</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>30256</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>30286</v>
       </c>
@@ -2957,7 +2955,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>30317</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>30348</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>30376</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>30407</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>30437</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>30468</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>30498</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>30529</v>
       </c>
@@ -3021,7 +3019,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>30560</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>30590</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>30621</v>
       </c>
@@ -3045,7 +3043,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>30651</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>30682</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>30713</v>
       </c>
@@ -3069,7 +3067,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>30742</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>30773</v>
       </c>
@@ -3085,7 +3083,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>30803</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>30834</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>30864</v>
       </c>
@@ -3109,7 +3107,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>30895</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>30926</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>30956</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>30987</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>31017</v>
       </c>
@@ -3149,7 +3147,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>31048</v>
       </c>
@@ -3157,7 +3155,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>31079</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>31107</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>31138</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>31168</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>31199</v>
       </c>
@@ -3197,7 +3195,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>31229</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>31260</v>
       </c>
@@ -3213,7 +3211,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>31291</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>31321</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>31352</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>31382</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>31413</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>31444</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>31472</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>31503</v>
       </c>
@@ -3277,7 +3275,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>31533</v>
       </c>
@@ -3285,7 +3283,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>31564</v>
       </c>
@@ -3293,7 +3291,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>31594</v>
       </c>
@@ -3301,7 +3299,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>31625</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>31656</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>31686</v>
       </c>
@@ -3325,7 +3323,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <v>31717</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>31747</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>31778</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>31809</v>
       </c>
@@ -3357,7 +3355,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>31837</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>31868</v>
       </c>
@@ -3373,7 +3371,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <v>31898</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>31929</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>31959</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>31990</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <v>32021</v>
       </c>
@@ -3413,7 +3411,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>32051</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <v>32082</v>
       </c>
@@ -3429,7 +3427,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>32112</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>32143</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>32174</v>
       </c>
@@ -3453,7 +3451,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>32203</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>32234</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>32264</v>
       </c>
@@ -3477,7 +3475,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>32295</v>
       </c>
@@ -3485,7 +3483,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>32325</v>
       </c>
@@ -3493,7 +3491,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>32356</v>
       </c>
@@ -3501,7 +3499,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <v>32387</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>32417</v>
       </c>
@@ -3517,7 +3515,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>32448</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>32478</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>32509</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>32540</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>32568</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>32599</v>
       </c>
@@ -3565,7 +3563,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>32629</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>32660</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>32690</v>
       </c>
@@ -3589,7 +3587,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>32721</v>
       </c>
@@ -3597,7 +3595,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>32752</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>32782</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <v>32813</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>32843</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>32874</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>32905</v>
       </c>
@@ -3645,7 +3643,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>32933</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>32964</v>
       </c>
@@ -3661,7 +3659,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>32994</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>33025</v>
       </c>
@@ -3677,7 +3675,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <v>33055</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>33086</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>33117</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>33147</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <v>33178</v>
       </c>
@@ -3717,7 +3715,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>33208</v>
       </c>
@@ -3725,7 +3723,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <v>33239</v>
       </c>
@@ -3733,7 +3731,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>33270</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>33298</v>
       </c>
@@ -3749,7 +3747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>33329</v>
       </c>
@@ -3757,7 +3755,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <v>33359</v>
       </c>
@@ -3765,7 +3763,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>33390</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>33420</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>33451</v>
       </c>
@@ -3789,7 +3787,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>33482</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>33512</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>33543</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>33573</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <v>33604</v>
       </c>
@@ -3829,7 +3827,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>33635</v>
       </c>
@@ -3837,7 +3835,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>33664</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>33695</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <v>33725</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>33756</v>
       </c>
@@ -3869,7 +3867,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <v>33786</v>
       </c>
@@ -3877,7 +3875,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>33817</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>33848</v>
       </c>
@@ -3893,7 +3891,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>33878</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <v>33909</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>33939</v>
       </c>
@@ -3917,7 +3915,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
         <v>33970</v>
       </c>
@@ -3925,7 +3923,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>34001</v>
       </c>
@@ -3933,7 +3931,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>34029</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>34060</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
         <v>34090</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>34121</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <v>34151</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>34182</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <v>34213</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>34243</v>
       </c>
@@ -3997,7 +3995,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
         <v>34274</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>34304</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
         <v>34335</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>34366</v>
       </c>
@@ -4029,7 +4027,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <v>34394</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>34425</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
         <v>34455</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>34486</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
         <v>34516</v>
       </c>
@@ -4069,7 +4067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>34547</v>
       </c>
@@ -4077,7 +4075,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <v>34578</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>34608</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <v>34639</v>
       </c>
@@ -4101,7 +4099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>34669</v>
       </c>
@@ -4109,7 +4107,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <v>34700</v>
       </c>
@@ -4117,7 +4115,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>34731</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <v>34759</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>34790</v>
       </c>
@@ -4141,7 +4139,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <v>34820</v>
       </c>
@@ -4149,7 +4147,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>34851</v>
       </c>
@@ -4157,7 +4155,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
         <v>34881</v>
       </c>
@@ -4165,7 +4163,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>34912</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <v>34943</v>
       </c>
@@ -4181,7 +4179,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>34973</v>
       </c>
@@ -4189,7 +4187,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
         <v>35004</v>
       </c>
@@ -4197,7 +4195,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>35034</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <v>35065</v>
       </c>
@@ -4213,7 +4211,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>35096</v>
       </c>
@@ -4221,7 +4219,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <v>35125</v>
       </c>
@@ -4229,7 +4227,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>35156</v>
       </c>
@@ -4237,7 +4235,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>35186</v>
       </c>
@@ -4245,7 +4243,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>35217</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <v>35247</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>35278</v>
       </c>
@@ -4269,7 +4267,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>35309</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>35339</v>
       </c>
@@ -4285,7 +4283,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>35370</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>35400</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <v>35431</v>
       </c>
@@ -4309,7 +4307,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>35462</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>35490</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>35521</v>
       </c>
@@ -4333,7 +4331,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
         <v>35551</v>
       </c>
@@ -4341,7 +4339,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>35582</v>
       </c>
@@ -4349,7 +4347,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
         <v>35612</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>35643</v>
       </c>
@@ -4365,7 +4363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <v>35674</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>35704</v>
       </c>
@@ -4381,7 +4379,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
         <v>35735</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>35765</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
         <v>35796</v>
       </c>
@@ -4405,7 +4403,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>35827</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>35855</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>35886</v>
       </c>
@@ -4429,7 +4427,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
         <v>35916</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>35947</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
         <v>35977</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>36008</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <v>36039</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>36069</v>
       </c>
@@ -4477,7 +4475,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
         <v>36100</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>36130</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <v>36161</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>36192</v>
       </c>
@@ -4509,7 +4507,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <v>36220</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>36251</v>
       </c>
@@ -4525,7 +4523,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
         <v>36281</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>36312</v>
       </c>
@@ -4541,7 +4539,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
         <v>36342</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>36373</v>
       </c>
@@ -4557,7 +4555,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <v>36404</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>36434</v>
       </c>
@@ -4573,7 +4571,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
         <v>36465</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>36495</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
         <v>36526</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <v>36557</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
         <v>36586</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <v>36617</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
         <v>36647</v>
       </c>
@@ -4629,7 +4627,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>36678</v>
       </c>
@@ -4637,7 +4635,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
         <v>36708</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <v>36739</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
         <v>36770</v>
       </c>
@@ -4661,7 +4659,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>36800</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
         <v>36831</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>36861</v>
       </c>
@@ -4685,7 +4683,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
         <v>36892</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
         <v>36923</v>
       </c>
@@ -4701,7 +4699,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
         <v>36951</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>36982</v>
       </c>
@@ -4717,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
         <v>37012</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>37043</v>
       </c>
@@ -4733,7 +4731,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
         <v>37073</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
         <v>37104</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
         <v>37135</v>
       </c>
@@ -4757,7 +4755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
         <v>37165</v>
       </c>
@@ -4765,7 +4763,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
         <v>37196</v>
       </c>
@@ -4773,7 +4771,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>37226</v>
       </c>
@@ -4781,7 +4779,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
         <v>37257</v>
       </c>
@@ -4789,7 +4787,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
         <v>37288</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
         <v>37316</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
         <v>37347</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
         <v>37377</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
         <v>37408</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
         <v>37438</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>37469</v>
       </c>
@@ -4845,7 +4843,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
         <v>37500</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
         <v>37530</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
         <v>37561</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>37591</v>
       </c>
@@ -4877,7 +4875,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
         <v>37622</v>
       </c>
@@ -4885,7 +4883,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
         <v>37653</v>
       </c>
@@ -4893,7 +4891,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
         <v>37681</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
         <v>37712</v>
       </c>
@@ -4909,7 +4907,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
         <v>37742</v>
       </c>
@@ -4917,7 +4915,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
         <v>37773</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
         <v>37803</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
         <v>37834</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
         <v>37865</v>
       </c>
@@ -4949,7 +4947,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
         <v>37895</v>
       </c>
@@ -4957,7 +4955,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
         <v>37926</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
         <v>37956</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
         <v>37987</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
         <v>38018</v>
       </c>
@@ -4989,7 +4987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
         <v>38047</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
         <v>38078</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
         <v>38108</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
         <v>38139</v>
       </c>
@@ -5021,7 +5019,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
         <v>38169</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
         <v>38200</v>
       </c>
@@ -5037,7 +5035,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
         <v>38231</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
         <v>38261</v>
       </c>
@@ -5053,7 +5051,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
         <v>38292</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
         <v>38322</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
         <v>38353</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
         <v>38384</v>
       </c>
@@ -5085,7 +5083,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
         <v>38412</v>
       </c>
@@ -5093,7 +5091,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
         <v>38443</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
         <v>38473</v>
       </c>
@@ -5109,7 +5107,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
         <v>38504</v>
       </c>
@@ -5117,7 +5115,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
         <v>38534</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
         <v>38565</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
         <v>38596</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
         <v>38626</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
         <v>38657</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
         <v>38687</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
         <v>38718</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
         <v>38749</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
         <v>38777</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
         <v>38808</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
         <v>38838</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
         <v>38869</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
         <v>38899</v>
       </c>
@@ -5221,7 +5219,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
         <v>38930</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
         <v>38961</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
         <v>38991</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
         <v>39022</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
         <v>39052</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
         <v>39083</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
         <v>39114</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
         <v>39142</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
         <v>39173</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
         <v>39203</v>
       </c>
@@ -5301,7 +5299,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
         <v>39234</v>
       </c>
@@ -5309,7 +5307,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
         <v>39264</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
         <v>39295</v>
       </c>
@@ -5325,7 +5323,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
         <v>39326</v>
       </c>
@@ -5333,7 +5331,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
         <v>39356</v>
       </c>
@@ -5341,7 +5339,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
         <v>39387</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
         <v>39417</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
         <v>39448</v>
       </c>
@@ -5365,7 +5363,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
         <v>39479</v>
       </c>
@@ -5373,7 +5371,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
         <v>39508</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="5">
         <v>39539</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="5">
         <v>39569</v>
       </c>
@@ -5397,7 +5395,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="5">
         <v>39600</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="5">
         <v>39630</v>
       </c>
@@ -5413,7 +5411,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="5">
         <v>39661</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
         <v>39692</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
         <v>39722</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
         <v>39753</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
         <v>39783</v>
       </c>
@@ -5453,7 +5451,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
         <v>39814</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
         <v>39845</v>
       </c>
@@ -5469,7 +5467,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
         <v>39873</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
         <v>39904</v>
       </c>
@@ -5485,7 +5483,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
         <v>39934</v>
       </c>
@@ -5493,7 +5491,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="5">
         <v>39965</v>
       </c>
@@ -5501,7 +5499,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
         <v>39995</v>
       </c>
@@ -5509,7 +5507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
         <v>40026</v>
       </c>
@@ -5517,7 +5515,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
         <v>40057</v>
       </c>
@@ -5525,7 +5523,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
         <v>40087</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
         <v>40118</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
         <v>40148</v>
       </c>
@@ -5549,7 +5547,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
         <v>40179</v>
       </c>
@@ -5557,7 +5555,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
         <v>40210</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
         <v>40238</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
         <v>40269</v>
       </c>
@@ -5581,7 +5579,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
         <v>40299</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
         <v>40330</v>
       </c>
@@ -5597,7 +5595,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
         <v>40360</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
         <v>40391</v>
       </c>
@@ -5613,7 +5611,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
         <v>40422</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
         <v>40452</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
         <v>40483</v>
       </c>
@@ -5637,7 +5635,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
         <v>40513</v>
       </c>
@@ -5645,7 +5643,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
         <v>40544</v>
       </c>
@@ -5653,7 +5651,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
         <v>40575</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
         <v>40603</v>
       </c>
@@ -5669,7 +5667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
         <v>40634</v>
       </c>
@@ -5677,7 +5675,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
         <v>40664</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
         <v>40695</v>
       </c>
@@ -5693,7 +5691,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
         <v>40725</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
         <v>40756</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
         <v>40787</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
         <v>40817</v>
       </c>
@@ -5725,7 +5723,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
         <v>40848</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
         <v>40878</v>
       </c>
@@ -5741,7 +5739,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
         <v>40909</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
         <v>40940</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
         <v>40969</v>
       </c>
@@ -5765,7 +5763,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
         <v>41000</v>
       </c>
@@ -5773,7 +5771,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="5">
         <v>41030</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="5">
         <v>41061</v>
       </c>
@@ -5789,7 +5787,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
         <v>41091</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
         <v>41122</v>
       </c>
@@ -5805,7 +5803,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
         <v>41153</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
         <v>41183</v>
       </c>
@@ -5821,7 +5819,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
         <v>41214</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
         <v>41244</v>
       </c>
@@ -5837,7 +5835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
         <v>41275</v>
       </c>
@@ -5845,7 +5843,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
         <v>41306</v>
       </c>
@@ -5853,7 +5851,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
         <v>41334</v>
       </c>
@@ -5861,7 +5859,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
         <v>41365</v>
       </c>
@@ -5869,7 +5867,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
         <v>41395</v>
       </c>
@@ -5877,7 +5875,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
         <v>41426</v>
       </c>
@@ -5885,7 +5883,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
         <v>41456</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
         <v>41487</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
         <v>41518</v>
       </c>
@@ -5909,7 +5907,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
         <v>41548</v>
       </c>
@@ -5917,7 +5915,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
         <v>41579</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
         <v>41609</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
         <v>41640</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
         <v>41671</v>
       </c>
@@ -5949,7 +5947,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
         <v>41699</v>
       </c>
@@ -5957,7 +5955,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
         <v>41730</v>
       </c>
@@ -5965,7 +5963,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
         <v>41760</v>
       </c>
@@ -5973,7 +5971,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
         <v>41791</v>
       </c>
@@ -5981,7 +5979,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
         <v>41821</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
         <v>41852</v>
       </c>
@@ -5997,7 +5995,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
         <v>41883</v>
       </c>
@@ -6005,7 +6003,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
         <v>41913</v>
       </c>
@@ -6013,7 +6011,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
         <v>41944</v>
       </c>
@@ -6021,7 +6019,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
         <v>41974</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
         <v>42005</v>
       </c>
@@ -6037,7 +6035,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
         <v>42036</v>
       </c>
@@ -6045,7 +6043,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
         <v>42064</v>
       </c>
@@ -6053,7 +6051,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
         <v>42095</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
         <v>42125</v>
       </c>
@@ -6069,7 +6067,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
         <v>42156</v>
       </c>
@@ -6077,7 +6075,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
         <v>42186</v>
       </c>
@@ -6085,7 +6083,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
         <v>42217</v>
       </c>
@@ -6093,7 +6091,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
         <v>42248</v>
       </c>
@@ -6101,7 +6099,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
         <v>42278</v>
       </c>
@@ -6109,7 +6107,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5">
         <v>42309</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5">
         <v>42339</v>
       </c>
@@ -6125,7 +6123,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5">
         <v>42370</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5">
         <v>42401</v>
       </c>
@@ -6141,7 +6139,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="5">
         <v>42430</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5">
         <v>42461</v>
       </c>
@@ -6157,7 +6155,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5">
         <v>42491</v>
       </c>
@@ -6165,7 +6163,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5">
         <v>42522</v>
       </c>
@@ -6173,7 +6171,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5">
         <v>42552</v>
       </c>
@@ -6181,7 +6179,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="5">
         <v>42583</v>
       </c>
@@ -6189,7 +6187,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5">
         <v>42614</v>
       </c>
@@ -6197,7 +6195,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5">
         <v>42644</v>
       </c>
@@ -6205,7 +6203,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5">
         <v>42675</v>
       </c>
@@ -6213,7 +6211,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="5">
         <v>42705</v>
       </c>
@@ -6221,7 +6219,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
         <v>42736</v>
       </c>
@@ -6229,7 +6227,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="5">
         <v>42767</v>
       </c>
@@ -6237,7 +6235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="5">
         <v>42795</v>
       </c>
@@ -6245,7 +6243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="5">
         <v>42826</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
         <v>42856</v>
       </c>
@@ -6261,7 +6259,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="5">
         <v>42887</v>
       </c>
@@ -6269,7 +6267,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5">
         <v>42917</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5">
         <v>42948</v>
       </c>
@@ -6285,7 +6283,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5">
         <v>42979</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5">
         <v>43009</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="5">
         <v>43040</v>
       </c>
@@ -6309,7 +6307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5">
         <v>43070</v>
       </c>
@@ -6317,7 +6315,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5">
         <v>43101</v>
       </c>
@@ -6325,7 +6323,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5">
         <v>43132</v>
       </c>
@@ -6333,7 +6331,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="5">
         <v>43160</v>
       </c>
@@ -6341,7 +6339,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="5">
         <v>43191</v>
       </c>
@@ -6349,7 +6347,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="5">
         <v>43221</v>
       </c>
@@ -6357,7 +6355,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="5">
         <v>43252</v>
       </c>
@@ -6365,7 +6363,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="5">
         <v>43282</v>
       </c>
@@ -6373,7 +6371,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5">
         <v>43313</v>
       </c>
@@ -6381,7 +6379,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="5">
         <v>43344</v>
       </c>
@@ -6389,7 +6387,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5">
         <v>43374</v>
       </c>
@@ -6397,7 +6395,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5">
         <v>43405</v>
       </c>
@@ -6405,7 +6403,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5">
         <v>43435</v>
       </c>
@@ -6413,7 +6411,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5">
         <v>43466</v>
       </c>
@@ -6421,7 +6419,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5">
         <v>43497</v>
       </c>
@@ -6429,7 +6427,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="5">
         <v>43525</v>
       </c>
@@ -6437,7 +6435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="5">
         <v>43556</v>
       </c>
@@ -6445,7 +6443,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="5">
         <v>43586</v>
       </c>
@@ -6453,7 +6451,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="5">
         <v>43617</v>
       </c>
@@ -6461,7 +6459,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="5">
         <v>43647</v>
       </c>
@@ -6469,7 +6467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="5">
         <v>43678</v>
       </c>
@@ -6477,7 +6475,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="5">
         <v>43709</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="5">
         <v>43739</v>
       </c>
@@ -6493,7 +6491,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="5">
         <v>43770</v>
       </c>
@@ -6501,7 +6499,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="5">
         <v>43800</v>
       </c>
@@ -6509,7 +6507,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5">
         <v>43831</v>
       </c>
@@ -6517,7 +6515,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5">
         <v>43862</v>
       </c>
@@ -6525,7 +6523,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="5">
         <v>43891</v>
       </c>
@@ -6533,7 +6531,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="5">
         <v>43922</v>
       </c>
@@ -6541,7 +6539,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="5">
         <v>43952</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="5">
         <v>43983</v>
       </c>
@@ -6557,7 +6555,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="5">
         <v>44013</v>
       </c>
@@ -6565,7 +6563,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="5">
         <v>44044</v>
       </c>
@@ -6585,27 +6583,25 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <f>AVERAGE(Data!B648:B743)/100</f>
-        <v>7.4447916666666669E-2</v>
+        <f>AVERAGE(Data!B504:B743)/100</f>
+        <v>6.0595833333333321E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\io-model\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40640B-1030-4239-8793-1791644BBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713D08D-3502-4ACD-AA63-81BD7DFAE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="2445" windowWidth="22545" windowHeight="12780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HSR" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="HSR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>HSR Household Savings Rate</t>
   </si>
   <si>
     <t>Source:</t>
+  </si>
+  <si>
+    <t>Personal Savings Rate (PSAVERT)</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/PSAVERT</t>
   </si>
   <si>
     <t>Notes</t>
@@ -67,33 +73,53 @@
     <t>Household Savings Rate</t>
   </si>
   <si>
-    <t>EUROSTAT</t>
+    <t>FRED Graph Observations</t>
   </si>
   <si>
-    <t>Household saving rate (TEINA500)</t>
+    <t>Federal Reserve Economic Data</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/teina500/default/table?lang=en</t>
+    <t>Link: https://fred.stlouisfed.org</t>
   </si>
   <si>
-    <t>rate spiked after the start of the coronavirus pandemic; we do not</t>
+    <t>Help: https://fred.stlouisfed.org/help-faq</t>
   </si>
   <si>
-    <t>expect savings to remain as high as they have been recently.</t>
+    <t>Economic Research Division</t>
   </si>
   <si>
-    <t>2019-Q3/4 savings rate for EU27</t>
+    <t>Federal Reserve Bank of St. Louis</t>
   </si>
   <si>
-    <t>We average data from Q3/4-2019 in part because the household savings</t>
+    <t>PSAVERT</t>
+  </si>
+  <si>
+    <t>Personal Saving Rate, Percent, Monthly, Seasonally Adjusted Annual Rate</t>
+  </si>
+  <si>
+    <t>Frequency: Monthly</t>
+  </si>
+  <si>
+    <t>observation_date</t>
+  </si>
+  <si>
+    <t>We take a 20-year average (2000-2019) for the U.S.</t>
+  </si>
+  <si>
+    <t>This excludes outlier months caused by the COVID</t>
+  </si>
+  <si>
+    <t>pandemic in early 2020.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -149,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +184,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,15 +500,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53E62A-DC55-435E-84B0-0337EC6CDF03}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -494,77 +517,72 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{1350D0AD-6499-408F-B14C-C5B8D503DBF2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E7B40E0A-AF04-4429-90FA-59A7265B8C0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -572,14 +590,6003 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
+  <dimension ref="A1:B751"/>
+  <sheetViews>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>21551</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>21582</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>21610</v>
+      </c>
+      <c r="B14" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>21641</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>21671</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>21702</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>21732</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>21763</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>21794</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>21824</v>
+      </c>
+      <c r="B21" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21855</v>
+      </c>
+      <c r="B22" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>21885</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>21916</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>21947</v>
+      </c>
+      <c r="B25" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>21976</v>
+      </c>
+      <c r="B26" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>22007</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>22037</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>22068</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>22098</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>22129</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>22160</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>22190</v>
+      </c>
+      <c r="B33" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>22221</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>22251</v>
+      </c>
+      <c r="B35" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>22282</v>
+      </c>
+      <c r="B36" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>22313</v>
+      </c>
+      <c r="B37" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>22341</v>
+      </c>
+      <c r="B38" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>22372</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>22402</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>22433</v>
+      </c>
+      <c r="B41" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>22463</v>
+      </c>
+      <c r="B42" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>22494</v>
+      </c>
+      <c r="B43" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>22525</v>
+      </c>
+      <c r="B44" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>22555</v>
+      </c>
+      <c r="B45" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>22586</v>
+      </c>
+      <c r="B46" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>22616</v>
+      </c>
+      <c r="B47" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>22647</v>
+      </c>
+      <c r="B48" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>22678</v>
+      </c>
+      <c r="B49" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>22706</v>
+      </c>
+      <c r="B50" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>22737</v>
+      </c>
+      <c r="B51" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>22767</v>
+      </c>
+      <c r="B52" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>22798</v>
+      </c>
+      <c r="B53" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>22828</v>
+      </c>
+      <c r="B54" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>22859</v>
+      </c>
+      <c r="B55" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>22890</v>
+      </c>
+      <c r="B56" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>22920</v>
+      </c>
+      <c r="B57" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>22951</v>
+      </c>
+      <c r="B58" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>22981</v>
+      </c>
+      <c r="B59" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>23012</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>23043</v>
+      </c>
+      <c r="B61" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>23071</v>
+      </c>
+      <c r="B62" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>23102</v>
+      </c>
+      <c r="B63" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>23132</v>
+      </c>
+      <c r="B64" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>23163</v>
+      </c>
+      <c r="B65" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>23193</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>23224</v>
+      </c>
+      <c r="B67" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>23255</v>
+      </c>
+      <c r="B68" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>23285</v>
+      </c>
+      <c r="B69" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>23316</v>
+      </c>
+      <c r="B70" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>23346</v>
+      </c>
+      <c r="B71" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>23377</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>23408</v>
+      </c>
+      <c r="B73" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>23437</v>
+      </c>
+      <c r="B74" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>23468</v>
+      </c>
+      <c r="B75" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>23498</v>
+      </c>
+      <c r="B76" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>23529</v>
+      </c>
+      <c r="B77" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>23559</v>
+      </c>
+      <c r="B78" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>23590</v>
+      </c>
+      <c r="B79" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>23621</v>
+      </c>
+      <c r="B80" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>23651</v>
+      </c>
+      <c r="B81" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>23682</v>
+      </c>
+      <c r="B82" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>23712</v>
+      </c>
+      <c r="B83" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>23743</v>
+      </c>
+      <c r="B84" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>23774</v>
+      </c>
+      <c r="B85" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>23802</v>
+      </c>
+      <c r="B86" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>23833</v>
+      </c>
+      <c r="B87" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>23863</v>
+      </c>
+      <c r="B88" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>23894</v>
+      </c>
+      <c r="B89" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>23924</v>
+      </c>
+      <c r="B90" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>23955</v>
+      </c>
+      <c r="B91" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>23986</v>
+      </c>
+      <c r="B92" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>24016</v>
+      </c>
+      <c r="B93" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>24047</v>
+      </c>
+      <c r="B94" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>24077</v>
+      </c>
+      <c r="B95" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>24108</v>
+      </c>
+      <c r="B96" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>24139</v>
+      </c>
+      <c r="B97" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>24167</v>
+      </c>
+      <c r="B98" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>24198</v>
+      </c>
+      <c r="B99" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>24228</v>
+      </c>
+      <c r="B100" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>24259</v>
+      </c>
+      <c r="B101" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>24289</v>
+      </c>
+      <c r="B102" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>24320</v>
+      </c>
+      <c r="B103" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>24351</v>
+      </c>
+      <c r="B104" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>24381</v>
+      </c>
+      <c r="B105" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>24412</v>
+      </c>
+      <c r="B106" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>24442</v>
+      </c>
+      <c r="B107" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>24473</v>
+      </c>
+      <c r="B108" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>24504</v>
+      </c>
+      <c r="B109" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>24532</v>
+      </c>
+      <c r="B110" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>24563</v>
+      </c>
+      <c r="B111" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>24593</v>
+      </c>
+      <c r="B112" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>24624</v>
+      </c>
+      <c r="B113" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>24654</v>
+      </c>
+      <c r="B114" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>24685</v>
+      </c>
+      <c r="B115" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>24716</v>
+      </c>
+      <c r="B116" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>24746</v>
+      </c>
+      <c r="B117" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>24777</v>
+      </c>
+      <c r="B118" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>24807</v>
+      </c>
+      <c r="B119" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>24838</v>
+      </c>
+      <c r="B120" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>24869</v>
+      </c>
+      <c r="B121" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>24898</v>
+      </c>
+      <c r="B122" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>24929</v>
+      </c>
+      <c r="B123" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>24959</v>
+      </c>
+      <c r="B124" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>24990</v>
+      </c>
+      <c r="B125" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>25020</v>
+      </c>
+      <c r="B126" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>25051</v>
+      </c>
+      <c r="B127" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>25082</v>
+      </c>
+      <c r="B128" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>25112</v>
+      </c>
+      <c r="B129" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>25143</v>
+      </c>
+      <c r="B130" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="5">
+        <v>25173</v>
+      </c>
+      <c r="B131" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="5">
+        <v>25204</v>
+      </c>
+      <c r="B132" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="5">
+        <v>25235</v>
+      </c>
+      <c r="B133" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
+        <v>25263</v>
+      </c>
+      <c r="B134" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="5">
+        <v>25294</v>
+      </c>
+      <c r="B135" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
+        <v>25324</v>
+      </c>
+      <c r="B136" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="5">
+        <v>25355</v>
+      </c>
+      <c r="B137" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="5">
+        <v>25385</v>
+      </c>
+      <c r="B138" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="5">
+        <v>25416</v>
+      </c>
+      <c r="B139" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="5">
+        <v>25447</v>
+      </c>
+      <c r="B140" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="5">
+        <v>25477</v>
+      </c>
+      <c r="B141" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="5">
+        <v>25508</v>
+      </c>
+      <c r="B142" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="5">
+        <v>25538</v>
+      </c>
+      <c r="B143" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="5">
+        <v>25569</v>
+      </c>
+      <c r="B144" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="5">
+        <v>25600</v>
+      </c>
+      <c r="B145" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
+        <v>25628</v>
+      </c>
+      <c r="B146" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="5">
+        <v>25659</v>
+      </c>
+      <c r="B147" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>25689</v>
+      </c>
+      <c r="B148" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="5">
+        <v>25720</v>
+      </c>
+      <c r="B149" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="5">
+        <v>25750</v>
+      </c>
+      <c r="B150" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="5">
+        <v>25781</v>
+      </c>
+      <c r="B151" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>25812</v>
+      </c>
+      <c r="B152" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="5">
+        <v>25842</v>
+      </c>
+      <c r="B153" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="5">
+        <v>25873</v>
+      </c>
+      <c r="B154" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="5">
+        <v>25903</v>
+      </c>
+      <c r="B155" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="5">
+        <v>25934</v>
+      </c>
+      <c r="B156" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="5">
+        <v>25965</v>
+      </c>
+      <c r="B157" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
+        <v>25993</v>
+      </c>
+      <c r="B158" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="5">
+        <v>26024</v>
+      </c>
+      <c r="B159" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
+        <v>26054</v>
+      </c>
+      <c r="B160" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>26085</v>
+      </c>
+      <c r="B161" s="6">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="5">
+        <v>26115</v>
+      </c>
+      <c r="B162" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="5">
+        <v>26146</v>
+      </c>
+      <c r="B163" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="5">
+        <v>26177</v>
+      </c>
+      <c r="B164" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="5">
+        <v>26207</v>
+      </c>
+      <c r="B165" s="6">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
+        <v>26238</v>
+      </c>
+      <c r="B166" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="5">
+        <v>26268</v>
+      </c>
+      <c r="B167" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
+        <v>26299</v>
+      </c>
+      <c r="B168" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
+        <v>26330</v>
+      </c>
+      <c r="B169" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
+        <v>26359</v>
+      </c>
+      <c r="B170" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="5">
+        <v>26390</v>
+      </c>
+      <c r="B171" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
+        <v>26420</v>
+      </c>
+      <c r="B172" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
+        <v>26451</v>
+      </c>
+      <c r="B173" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
+        <v>26481</v>
+      </c>
+      <c r="B174" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
+        <v>26512</v>
+      </c>
+      <c r="B175" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="5">
+        <v>26543</v>
+      </c>
+      <c r="B176" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="5">
+        <v>26573</v>
+      </c>
+      <c r="B177" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="5">
+        <v>26604</v>
+      </c>
+      <c r="B178" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
+        <v>26634</v>
+      </c>
+      <c r="B179" s="6">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="5">
+        <v>26665</v>
+      </c>
+      <c r="B180" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
+        <v>26696</v>
+      </c>
+      <c r="B181" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
+        <v>26724</v>
+      </c>
+      <c r="B182" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
+        <v>26755</v>
+      </c>
+      <c r="B183" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
+        <v>26785</v>
+      </c>
+      <c r="B184" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
+        <v>26816</v>
+      </c>
+      <c r="B185" s="6">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>26846</v>
+      </c>
+      <c r="B186" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>26877</v>
+      </c>
+      <c r="B187" s="6">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="5">
+        <v>26908</v>
+      </c>
+      <c r="B188" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
+        <v>26938</v>
+      </c>
+      <c r="B189" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>26969</v>
+      </c>
+      <c r="B190" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>26999</v>
+      </c>
+      <c r="B191" s="6">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>27030</v>
+      </c>
+      <c r="B192" s="6">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>27061</v>
+      </c>
+      <c r="B193" s="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
+        <v>27089</v>
+      </c>
+      <c r="B194" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
+        <v>27120</v>
+      </c>
+      <c r="B195" s="6">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="5">
+        <v>27150</v>
+      </c>
+      <c r="B196" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="5">
+        <v>27181</v>
+      </c>
+      <c r="B197" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="5">
+        <v>27211</v>
+      </c>
+      <c r="B198" s="6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="5">
+        <v>27242</v>
+      </c>
+      <c r="B199" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="5">
+        <v>27273</v>
+      </c>
+      <c r="B200" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="5">
+        <v>27303</v>
+      </c>
+      <c r="B201" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="5">
+        <v>27334</v>
+      </c>
+      <c r="B202" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="5">
+        <v>27364</v>
+      </c>
+      <c r="B203" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
+        <v>27395</v>
+      </c>
+      <c r="B204" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="5">
+        <v>27426</v>
+      </c>
+      <c r="B205" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="5">
+        <v>27454</v>
+      </c>
+      <c r="B206" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="5">
+        <v>27485</v>
+      </c>
+      <c r="B207" s="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="5">
+        <v>27515</v>
+      </c>
+      <c r="B208" s="6">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="5">
+        <v>27546</v>
+      </c>
+      <c r="B209" s="6">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
+        <v>27576</v>
+      </c>
+      <c r="B210" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
+        <v>27607</v>
+      </c>
+      <c r="B211" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
+        <v>27638</v>
+      </c>
+      <c r="B212" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
+        <v>27668</v>
+      </c>
+      <c r="B213" s="6">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="5">
+        <v>27699</v>
+      </c>
+      <c r="B214" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="5">
+        <v>27729</v>
+      </c>
+      <c r="B215" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="5">
+        <v>27760</v>
+      </c>
+      <c r="B216" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="5">
+        <v>27791</v>
+      </c>
+      <c r="B217" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
+        <v>27820</v>
+      </c>
+      <c r="B218" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="5">
+        <v>27851</v>
+      </c>
+      <c r="B219" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="5">
+        <v>27881</v>
+      </c>
+      <c r="B220" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="5">
+        <v>27912</v>
+      </c>
+      <c r="B221" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="5">
+        <v>27942</v>
+      </c>
+      <c r="B222" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="5">
+        <v>27973</v>
+      </c>
+      <c r="B223" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="5">
+        <v>28004</v>
+      </c>
+      <c r="B224" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="5">
+        <v>28034</v>
+      </c>
+      <c r="B225" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="5">
+        <v>28065</v>
+      </c>
+      <c r="B226" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="5">
+        <v>28095</v>
+      </c>
+      <c r="B227" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="5">
+        <v>28126</v>
+      </c>
+      <c r="B228" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="5">
+        <v>28157</v>
+      </c>
+      <c r="B229" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="5">
+        <v>28185</v>
+      </c>
+      <c r="B230" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="5">
+        <v>28216</v>
+      </c>
+      <c r="B231" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="5">
+        <v>28246</v>
+      </c>
+      <c r="B232" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="5">
+        <v>28277</v>
+      </c>
+      <c r="B233" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="5">
+        <v>28307</v>
+      </c>
+      <c r="B234" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="5">
+        <v>28338</v>
+      </c>
+      <c r="B235" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="5">
+        <v>28369</v>
+      </c>
+      <c r="B236" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="5">
+        <v>28399</v>
+      </c>
+      <c r="B237" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="5">
+        <v>28430</v>
+      </c>
+      <c r="B238" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="5">
+        <v>28460</v>
+      </c>
+      <c r="B239" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="5">
+        <v>28491</v>
+      </c>
+      <c r="B240" s="6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="5">
+        <v>28522</v>
+      </c>
+      <c r="B241" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="5">
+        <v>28550</v>
+      </c>
+      <c r="B242" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="5">
+        <v>28581</v>
+      </c>
+      <c r="B243" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="5">
+        <v>28611</v>
+      </c>
+      <c r="B244" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="5">
+        <v>28642</v>
+      </c>
+      <c r="B245" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="5">
+        <v>28672</v>
+      </c>
+      <c r="B246" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="5">
+        <v>28703</v>
+      </c>
+      <c r="B247" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="5">
+        <v>28734</v>
+      </c>
+      <c r="B248" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="5">
+        <v>28764</v>
+      </c>
+      <c r="B249" s="6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="5">
+        <v>28795</v>
+      </c>
+      <c r="B250" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="5">
+        <v>28825</v>
+      </c>
+      <c r="B251" s="6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="5">
+        <v>28856</v>
+      </c>
+      <c r="B252" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="5">
+        <v>28887</v>
+      </c>
+      <c r="B253" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="5">
+        <v>28915</v>
+      </c>
+      <c r="B254" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="5">
+        <v>28946</v>
+      </c>
+      <c r="B255" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="5">
+        <v>28976</v>
+      </c>
+      <c r="B256" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="5">
+        <v>29007</v>
+      </c>
+      <c r="B257" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="5">
+        <v>29037</v>
+      </c>
+      <c r="B258" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="5">
+        <v>29068</v>
+      </c>
+      <c r="B259" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="5">
+        <v>29099</v>
+      </c>
+      <c r="B260" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="5">
+        <v>29129</v>
+      </c>
+      <c r="B261" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="5">
+        <v>29160</v>
+      </c>
+      <c r="B262" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="5">
+        <v>29190</v>
+      </c>
+      <c r="B263" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="5">
+        <v>29221</v>
+      </c>
+      <c r="B264" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="5">
+        <v>29252</v>
+      </c>
+      <c r="B265" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="5">
+        <v>29281</v>
+      </c>
+      <c r="B266" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="5">
+        <v>29312</v>
+      </c>
+      <c r="B267" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="5">
+        <v>29342</v>
+      </c>
+      <c r="B268" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="5">
+        <v>29373</v>
+      </c>
+      <c r="B269" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="5">
+        <v>29403</v>
+      </c>
+      <c r="B270" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="5">
+        <v>29434</v>
+      </c>
+      <c r="B271" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="5">
+        <v>29465</v>
+      </c>
+      <c r="B272" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="5">
+        <v>29495</v>
+      </c>
+      <c r="B273" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="5">
+        <v>29526</v>
+      </c>
+      <c r="B274" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="5">
+        <v>29556</v>
+      </c>
+      <c r="B275" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="5">
+        <v>29587</v>
+      </c>
+      <c r="B276" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="5">
+        <v>29618</v>
+      </c>
+      <c r="B277" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="5">
+        <v>29646</v>
+      </c>
+      <c r="B278" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="5">
+        <v>29677</v>
+      </c>
+      <c r="B279" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="5">
+        <v>29707</v>
+      </c>
+      <c r="B280" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="5">
+        <v>29738</v>
+      </c>
+      <c r="B281" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="5">
+        <v>29768</v>
+      </c>
+      <c r="B282" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="5">
+        <v>29799</v>
+      </c>
+      <c r="B283" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="5">
+        <v>29830</v>
+      </c>
+      <c r="B284" s="6">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="5">
+        <v>29860</v>
+      </c>
+      <c r="B285" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="5">
+        <v>29891</v>
+      </c>
+      <c r="B286" s="6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="5">
+        <v>29921</v>
+      </c>
+      <c r="B287" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="5">
+        <v>29952</v>
+      </c>
+      <c r="B288" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="5">
+        <v>29983</v>
+      </c>
+      <c r="B289" s="6">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="5">
+        <v>30011</v>
+      </c>
+      <c r="B290" s="6">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="5">
+        <v>30042</v>
+      </c>
+      <c r="B291" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="5">
+        <v>30072</v>
+      </c>
+      <c r="B292" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="5">
+        <v>30103</v>
+      </c>
+      <c r="B293" s="6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="5">
+        <v>30133</v>
+      </c>
+      <c r="B294" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="5">
+        <v>30164</v>
+      </c>
+      <c r="B295" s="6">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="5">
+        <v>30195</v>
+      </c>
+      <c r="B296" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="5">
+        <v>30225</v>
+      </c>
+      <c r="B297" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="5">
+        <v>30256</v>
+      </c>
+      <c r="B298" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="5">
+        <v>30286</v>
+      </c>
+      <c r="B299" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="5">
+        <v>30317</v>
+      </c>
+      <c r="B300" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="5">
+        <v>30348</v>
+      </c>
+      <c r="B301" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="5">
+        <v>30376</v>
+      </c>
+      <c r="B302" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="5">
+        <v>30407</v>
+      </c>
+      <c r="B303" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="5">
+        <v>30437</v>
+      </c>
+      <c r="B304" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="5">
+        <v>30468</v>
+      </c>
+      <c r="B305" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="5">
+        <v>30498</v>
+      </c>
+      <c r="B306" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="5">
+        <v>30529</v>
+      </c>
+      <c r="B307" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="5">
+        <v>30560</v>
+      </c>
+      <c r="B308" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="5">
+        <v>30590</v>
+      </c>
+      <c r="B309" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="5">
+        <v>30621</v>
+      </c>
+      <c r="B310" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="5">
+        <v>30651</v>
+      </c>
+      <c r="B311" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="5">
+        <v>30682</v>
+      </c>
+      <c r="B312" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="5">
+        <v>30713</v>
+      </c>
+      <c r="B313" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="5">
+        <v>30742</v>
+      </c>
+      <c r="B314" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="5">
+        <v>30773</v>
+      </c>
+      <c r="B315" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="5">
+        <v>30803</v>
+      </c>
+      <c r="B316" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="5">
+        <v>30834</v>
+      </c>
+      <c r="B317" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="5">
+        <v>30864</v>
+      </c>
+      <c r="B318" s="6">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="5">
+        <v>30895</v>
+      </c>
+      <c r="B319" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="5">
+        <v>30926</v>
+      </c>
+      <c r="B320" s="6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="5">
+        <v>30956</v>
+      </c>
+      <c r="B321" s="6">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="5">
+        <v>30987</v>
+      </c>
+      <c r="B322" s="6">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="5">
+        <v>31017</v>
+      </c>
+      <c r="B323" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="5">
+        <v>31048</v>
+      </c>
+      <c r="B324" s="6">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="5">
+        <v>31079</v>
+      </c>
+      <c r="B325" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="5">
+        <v>31107</v>
+      </c>
+      <c r="B326" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="5">
+        <v>31138</v>
+      </c>
+      <c r="B327" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="5">
+        <v>31168</v>
+      </c>
+      <c r="B328" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="5">
+        <v>31199</v>
+      </c>
+      <c r="B329" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="5">
+        <v>31229</v>
+      </c>
+      <c r="B330" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="5">
+        <v>31260</v>
+      </c>
+      <c r="B331" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="5">
+        <v>31291</v>
+      </c>
+      <c r="B332" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="5">
+        <v>31321</v>
+      </c>
+      <c r="B333" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="5">
+        <v>31352</v>
+      </c>
+      <c r="B334" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="5">
+        <v>31382</v>
+      </c>
+      <c r="B335" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="5">
+        <v>31413</v>
+      </c>
+      <c r="B336" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="5">
+        <v>31444</v>
+      </c>
+      <c r="B337" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="5">
+        <v>31472</v>
+      </c>
+      <c r="B338" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="5">
+        <v>31503</v>
+      </c>
+      <c r="B339" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="5">
+        <v>31533</v>
+      </c>
+      <c r="B340" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="5">
+        <v>31564</v>
+      </c>
+      <c r="B341" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="5">
+        <v>31594</v>
+      </c>
+      <c r="B342" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="5">
+        <v>31625</v>
+      </c>
+      <c r="B343" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="5">
+        <v>31656</v>
+      </c>
+      <c r="B344" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="5">
+        <v>31686</v>
+      </c>
+      <c r="B345" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="5">
+        <v>31717</v>
+      </c>
+      <c r="B346" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="5">
+        <v>31747</v>
+      </c>
+      <c r="B347" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="5">
+        <v>31778</v>
+      </c>
+      <c r="B348" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="5">
+        <v>31809</v>
+      </c>
+      <c r="B349" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="5">
+        <v>31837</v>
+      </c>
+      <c r="B350" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="5">
+        <v>31868</v>
+      </c>
+      <c r="B351" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="5">
+        <v>31898</v>
+      </c>
+      <c r="B352" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="5">
+        <v>31929</v>
+      </c>
+      <c r="B353" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="5">
+        <v>31959</v>
+      </c>
+      <c r="B354" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="5">
+        <v>31990</v>
+      </c>
+      <c r="B355" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="5">
+        <v>32021</v>
+      </c>
+      <c r="B356" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="5">
+        <v>32051</v>
+      </c>
+      <c r="B357" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="5">
+        <v>32082</v>
+      </c>
+      <c r="B358" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="5">
+        <v>32112</v>
+      </c>
+      <c r="B359" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="5">
+        <v>32143</v>
+      </c>
+      <c r="B360" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="5">
+        <v>32174</v>
+      </c>
+      <c r="B361" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="5">
+        <v>32203</v>
+      </c>
+      <c r="B362" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="5">
+        <v>32234</v>
+      </c>
+      <c r="B363" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="5">
+        <v>32264</v>
+      </c>
+      <c r="B364" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="5">
+        <v>32295</v>
+      </c>
+      <c r="B365" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="5">
+        <v>32325</v>
+      </c>
+      <c r="B366" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="5">
+        <v>32356</v>
+      </c>
+      <c r="B367" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="5">
+        <v>32387</v>
+      </c>
+      <c r="B368" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="5">
+        <v>32417</v>
+      </c>
+      <c r="B369" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="5">
+        <v>32448</v>
+      </c>
+      <c r="B370" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="5">
+        <v>32478</v>
+      </c>
+      <c r="B371" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="5">
+        <v>32509</v>
+      </c>
+      <c r="B372" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="5">
+        <v>32540</v>
+      </c>
+      <c r="B373" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="5">
+        <v>32568</v>
+      </c>
+      <c r="B374" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="5">
+        <v>32599</v>
+      </c>
+      <c r="B375" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="5">
+        <v>32629</v>
+      </c>
+      <c r="B376" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="5">
+        <v>32660</v>
+      </c>
+      <c r="B377" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="5">
+        <v>32690</v>
+      </c>
+      <c r="B378" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="5">
+        <v>32721</v>
+      </c>
+      <c r="B379" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="5">
+        <v>32752</v>
+      </c>
+      <c r="B380" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="5">
+        <v>32782</v>
+      </c>
+      <c r="B381" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="5">
+        <v>32813</v>
+      </c>
+      <c r="B382" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="5">
+        <v>32843</v>
+      </c>
+      <c r="B383" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="5">
+        <v>32874</v>
+      </c>
+      <c r="B384" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="5">
+        <v>32905</v>
+      </c>
+      <c r="B385" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="5">
+        <v>32933</v>
+      </c>
+      <c r="B386" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="5">
+        <v>32964</v>
+      </c>
+      <c r="B387" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="5">
+        <v>32994</v>
+      </c>
+      <c r="B388" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="5">
+        <v>33025</v>
+      </c>
+      <c r="B389" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="5">
+        <v>33055</v>
+      </c>
+      <c r="B390" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="5">
+        <v>33086</v>
+      </c>
+      <c r="B391" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="5">
+        <v>33117</v>
+      </c>
+      <c r="B392" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="5">
+        <v>33147</v>
+      </c>
+      <c r="B393" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="5">
+        <v>33178</v>
+      </c>
+      <c r="B394" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="5">
+        <v>33208</v>
+      </c>
+      <c r="B395" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="5">
+        <v>33239</v>
+      </c>
+      <c r="B396" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="5">
+        <v>33270</v>
+      </c>
+      <c r="B397" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="5">
+        <v>33298</v>
+      </c>
+      <c r="B398" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="5">
+        <v>33329</v>
+      </c>
+      <c r="B399" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="5">
+        <v>33359</v>
+      </c>
+      <c r="B400" s="6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="5">
+        <v>33390</v>
+      </c>
+      <c r="B401" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="5">
+        <v>33420</v>
+      </c>
+      <c r="B402" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="5">
+        <v>33451</v>
+      </c>
+      <c r="B403" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="5">
+        <v>33482</v>
+      </c>
+      <c r="B404" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="5">
+        <v>33512</v>
+      </c>
+      <c r="B405" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="5">
+        <v>33543</v>
+      </c>
+      <c r="B406" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="5">
+        <v>33573</v>
+      </c>
+      <c r="B407" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="5">
+        <v>33604</v>
+      </c>
+      <c r="B408" s="6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="5">
+        <v>33635</v>
+      </c>
+      <c r="B409" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="5">
+        <v>33664</v>
+      </c>
+      <c r="B410" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="5">
+        <v>33695</v>
+      </c>
+      <c r="B411" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="5">
+        <v>33725</v>
+      </c>
+      <c r="B412" s="6">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="5">
+        <v>33756</v>
+      </c>
+      <c r="B413" s="6">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="5">
+        <v>33786</v>
+      </c>
+      <c r="B414" s="6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="5">
+        <v>33817</v>
+      </c>
+      <c r="B415" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="5">
+        <v>33848</v>
+      </c>
+      <c r="B416" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="5">
+        <v>33878</v>
+      </c>
+      <c r="B417" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="5">
+        <v>33909</v>
+      </c>
+      <c r="B418" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="5">
+        <v>33939</v>
+      </c>
+      <c r="B419" s="6">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="5">
+        <v>33970</v>
+      </c>
+      <c r="B420" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="5">
+        <v>34001</v>
+      </c>
+      <c r="B421" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="5">
+        <v>34029</v>
+      </c>
+      <c r="B422" s="6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="5">
+        <v>34060</v>
+      </c>
+      <c r="B423" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="5">
+        <v>34090</v>
+      </c>
+      <c r="B424" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="5">
+        <v>34121</v>
+      </c>
+      <c r="B425" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="5">
+        <v>34151</v>
+      </c>
+      <c r="B426" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="5">
+        <v>34182</v>
+      </c>
+      <c r="B427" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="5">
+        <v>34213</v>
+      </c>
+      <c r="B428" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="5">
+        <v>34243</v>
+      </c>
+      <c r="B429" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="5">
+        <v>34274</v>
+      </c>
+      <c r="B430" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="5">
+        <v>34304</v>
+      </c>
+      <c r="B431" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="5">
+        <v>34335</v>
+      </c>
+      <c r="B432" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="5">
+        <v>34366</v>
+      </c>
+      <c r="B433" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="5">
+        <v>34394</v>
+      </c>
+      <c r="B434" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="5">
+        <v>34425</v>
+      </c>
+      <c r="B435" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="5">
+        <v>34455</v>
+      </c>
+      <c r="B436" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="5">
+        <v>34486</v>
+      </c>
+      <c r="B437" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="5">
+        <v>34516</v>
+      </c>
+      <c r="B438" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="5">
+        <v>34547</v>
+      </c>
+      <c r="B439" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="5">
+        <v>34578</v>
+      </c>
+      <c r="B440" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="5">
+        <v>34608</v>
+      </c>
+      <c r="B441" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="5">
+        <v>34639</v>
+      </c>
+      <c r="B442" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="5">
+        <v>34669</v>
+      </c>
+      <c r="B443" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="5">
+        <v>34700</v>
+      </c>
+      <c r="B444" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="5">
+        <v>34731</v>
+      </c>
+      <c r="B445" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="5">
+        <v>34759</v>
+      </c>
+      <c r="B446" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="5">
+        <v>34790</v>
+      </c>
+      <c r="B447" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="5">
+        <v>34820</v>
+      </c>
+      <c r="B448" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="5">
+        <v>34851</v>
+      </c>
+      <c r="B449" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="5">
+        <v>34881</v>
+      </c>
+      <c r="B450" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="5">
+        <v>34912</v>
+      </c>
+      <c r="B451" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="5">
+        <v>34943</v>
+      </c>
+      <c r="B452" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="5">
+        <v>34973</v>
+      </c>
+      <c r="B453" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="5">
+        <v>35004</v>
+      </c>
+      <c r="B454" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="5">
+        <v>35034</v>
+      </c>
+      <c r="B455" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="5">
+        <v>35065</v>
+      </c>
+      <c r="B456" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="5">
+        <v>35096</v>
+      </c>
+      <c r="B457" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="5">
+        <v>35125</v>
+      </c>
+      <c r="B458" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="5">
+        <v>35156</v>
+      </c>
+      <c r="B459" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="5">
+        <v>35186</v>
+      </c>
+      <c r="B460" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="5">
+        <v>35217</v>
+      </c>
+      <c r="B461" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="5">
+        <v>35247</v>
+      </c>
+      <c r="B462" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="5">
+        <v>35278</v>
+      </c>
+      <c r="B463" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="5">
+        <v>35309</v>
+      </c>
+      <c r="B464" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="5">
+        <v>35339</v>
+      </c>
+      <c r="B465" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="5">
+        <v>35370</v>
+      </c>
+      <c r="B466" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="5">
+        <v>35400</v>
+      </c>
+      <c r="B467" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="5">
+        <v>35431</v>
+      </c>
+      <c r="B468" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="5">
+        <v>35462</v>
+      </c>
+      <c r="B469" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="5">
+        <v>35490</v>
+      </c>
+      <c r="B470" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="5">
+        <v>35521</v>
+      </c>
+      <c r="B471" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="5">
+        <v>35551</v>
+      </c>
+      <c r="B472" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="5">
+        <v>35582</v>
+      </c>
+      <c r="B473" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="5">
+        <v>35612</v>
+      </c>
+      <c r="B474" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="5">
+        <v>35643</v>
+      </c>
+      <c r="B475" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="5">
+        <v>35674</v>
+      </c>
+      <c r="B476" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="5">
+        <v>35704</v>
+      </c>
+      <c r="B477" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="5">
+        <v>35735</v>
+      </c>
+      <c r="B478" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B479" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="5">
+        <v>35796</v>
+      </c>
+      <c r="B480" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="5">
+        <v>35827</v>
+      </c>
+      <c r="B481" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="5">
+        <v>35855</v>
+      </c>
+      <c r="B482" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="5">
+        <v>35886</v>
+      </c>
+      <c r="B483" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="5">
+        <v>35916</v>
+      </c>
+      <c r="B484" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="5">
+        <v>35947</v>
+      </c>
+      <c r="B485" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="5">
+        <v>35977</v>
+      </c>
+      <c r="B486" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="5">
+        <v>36008</v>
+      </c>
+      <c r="B487" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="5">
+        <v>36039</v>
+      </c>
+      <c r="B488" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="5">
+        <v>36069</v>
+      </c>
+      <c r="B489" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="5">
+        <v>36100</v>
+      </c>
+      <c r="B490" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="5">
+        <v>36130</v>
+      </c>
+      <c r="B491" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="5">
+        <v>36161</v>
+      </c>
+      <c r="B492" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="5">
+        <v>36192</v>
+      </c>
+      <c r="B493" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="5">
+        <v>36220</v>
+      </c>
+      <c r="B494" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="5">
+        <v>36251</v>
+      </c>
+      <c r="B495" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="5">
+        <v>36281</v>
+      </c>
+      <c r="B496" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="5">
+        <v>36312</v>
+      </c>
+      <c r="B497" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="5">
+        <v>36342</v>
+      </c>
+      <c r="B498" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="5">
+        <v>36373</v>
+      </c>
+      <c r="B499" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="5">
+        <v>36404</v>
+      </c>
+      <c r="B500" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="5">
+        <v>36434</v>
+      </c>
+      <c r="B501" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="5">
+        <v>36465</v>
+      </c>
+      <c r="B502" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B503" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="5">
+        <v>36526</v>
+      </c>
+      <c r="B504" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="5">
+        <v>36557</v>
+      </c>
+      <c r="B505" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="5">
+        <v>36586</v>
+      </c>
+      <c r="B506" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="5">
+        <v>36617</v>
+      </c>
+      <c r="B507" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="5">
+        <v>36647</v>
+      </c>
+      <c r="B508" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="5">
+        <v>36678</v>
+      </c>
+      <c r="B509" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="5">
+        <v>36708</v>
+      </c>
+      <c r="B510" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="5">
+        <v>36739</v>
+      </c>
+      <c r="B511" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="5">
+        <v>36770</v>
+      </c>
+      <c r="B512" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="5">
+        <v>36800</v>
+      </c>
+      <c r="B513" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="5">
+        <v>36831</v>
+      </c>
+      <c r="B514" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B515" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="5">
+        <v>36892</v>
+      </c>
+      <c r="B516" s="6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="5">
+        <v>36923</v>
+      </c>
+      <c r="B517" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="5">
+        <v>36951</v>
+      </c>
+      <c r="B518" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="5">
+        <v>36982</v>
+      </c>
+      <c r="B519" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="5">
+        <v>37012</v>
+      </c>
+      <c r="B520" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="5">
+        <v>37043</v>
+      </c>
+      <c r="B521" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="5">
+        <v>37073</v>
+      </c>
+      <c r="B522" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="5">
+        <v>37104</v>
+      </c>
+      <c r="B523" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="5">
+        <v>37135</v>
+      </c>
+      <c r="B524" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="5">
+        <v>37165</v>
+      </c>
+      <c r="B525" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="5">
+        <v>37196</v>
+      </c>
+      <c r="B526" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B527" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="5">
+        <v>37257</v>
+      </c>
+      <c r="B528" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="5">
+        <v>37288</v>
+      </c>
+      <c r="B529" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="5">
+        <v>37316</v>
+      </c>
+      <c r="B530" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="5">
+        <v>37347</v>
+      </c>
+      <c r="B531" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="5">
+        <v>37377</v>
+      </c>
+      <c r="B532" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="5">
+        <v>37408</v>
+      </c>
+      <c r="B533" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="5">
+        <v>37438</v>
+      </c>
+      <c r="B534" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="5">
+        <v>37469</v>
+      </c>
+      <c r="B535" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="5">
+        <v>37500</v>
+      </c>
+      <c r="B536" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="5">
+        <v>37530</v>
+      </c>
+      <c r="B537" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="5">
+        <v>37561</v>
+      </c>
+      <c r="B538" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B539" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="5">
+        <v>37622</v>
+      </c>
+      <c r="B540" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="5">
+        <v>37653</v>
+      </c>
+      <c r="B541" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="5">
+        <v>37681</v>
+      </c>
+      <c r="B542" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="5">
+        <v>37712</v>
+      </c>
+      <c r="B543" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="5">
+        <v>37742</v>
+      </c>
+      <c r="B544" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="5">
+        <v>37773</v>
+      </c>
+      <c r="B545" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="5">
+        <v>37803</v>
+      </c>
+      <c r="B546" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="5">
+        <v>37834</v>
+      </c>
+      <c r="B547" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="5">
+        <v>37865</v>
+      </c>
+      <c r="B548" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="5">
+        <v>37895</v>
+      </c>
+      <c r="B549" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="5">
+        <v>37926</v>
+      </c>
+      <c r="B550" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B551" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="5">
+        <v>37987</v>
+      </c>
+      <c r="B552" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="5">
+        <v>38018</v>
+      </c>
+      <c r="B553" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="5">
+        <v>38047</v>
+      </c>
+      <c r="B554" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="5">
+        <v>38078</v>
+      </c>
+      <c r="B555" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="5">
+        <v>38108</v>
+      </c>
+      <c r="B556" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="5">
+        <v>38139</v>
+      </c>
+      <c r="B557" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="5">
+        <v>38169</v>
+      </c>
+      <c r="B558" s="6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="5">
+        <v>38200</v>
+      </c>
+      <c r="B559" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="5">
+        <v>38231</v>
+      </c>
+      <c r="B560" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="5">
+        <v>38261</v>
+      </c>
+      <c r="B561" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="5">
+        <v>38292</v>
+      </c>
+      <c r="B562" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B563" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="5">
+        <v>38353</v>
+      </c>
+      <c r="B564" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="5">
+        <v>38384</v>
+      </c>
+      <c r="B565" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="5">
+        <v>38412</v>
+      </c>
+      <c r="B566" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="5">
+        <v>38443</v>
+      </c>
+      <c r="B567" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="5">
+        <v>38473</v>
+      </c>
+      <c r="B568" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="5">
+        <v>38504</v>
+      </c>
+      <c r="B569" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="5">
+        <v>38534</v>
+      </c>
+      <c r="B570" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="5">
+        <v>38565</v>
+      </c>
+      <c r="B571" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="5">
+        <v>38596</v>
+      </c>
+      <c r="B572" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="5">
+        <v>38626</v>
+      </c>
+      <c r="B573" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="5">
+        <v>38657</v>
+      </c>
+      <c r="B574" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B575" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="5">
+        <v>38718</v>
+      </c>
+      <c r="B576" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="5">
+        <v>38749</v>
+      </c>
+      <c r="B577" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="5">
+        <v>38777</v>
+      </c>
+      <c r="B578" s="6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="5">
+        <v>38808</v>
+      </c>
+      <c r="B579" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="5">
+        <v>38838</v>
+      </c>
+      <c r="B580" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" s="5">
+        <v>38869</v>
+      </c>
+      <c r="B581" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="5">
+        <v>38899</v>
+      </c>
+      <c r="B582" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="5">
+        <v>38930</v>
+      </c>
+      <c r="B583" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" s="5">
+        <v>38961</v>
+      </c>
+      <c r="B584" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" s="5">
+        <v>38991</v>
+      </c>
+      <c r="B585" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" s="5">
+        <v>39022</v>
+      </c>
+      <c r="B586" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" s="5">
+        <v>39052</v>
+      </c>
+      <c r="B587" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" s="5">
+        <v>39083</v>
+      </c>
+      <c r="B588" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" s="5">
+        <v>39114</v>
+      </c>
+      <c r="B589" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" s="5">
+        <v>39142</v>
+      </c>
+      <c r="B590" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" s="5">
+        <v>39173</v>
+      </c>
+      <c r="B591" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" s="5">
+        <v>39203</v>
+      </c>
+      <c r="B592" s="6">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593" s="5">
+        <v>39234</v>
+      </c>
+      <c r="B593" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594" s="5">
+        <v>39264</v>
+      </c>
+      <c r="B594" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595" s="5">
+        <v>39295</v>
+      </c>
+      <c r="B595" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596" s="5">
+        <v>39326</v>
+      </c>
+      <c r="B596" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597" s="5">
+        <v>39356</v>
+      </c>
+      <c r="B597" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598" s="5">
+        <v>39387</v>
+      </c>
+      <c r="B598" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599" s="5">
+        <v>39417</v>
+      </c>
+      <c r="B599" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600" s="5">
+        <v>39448</v>
+      </c>
+      <c r="B600" s="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601" s="5">
+        <v>39479</v>
+      </c>
+      <c r="B601" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A602" s="5">
+        <v>39508</v>
+      </c>
+      <c r="B602" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A603" s="5">
+        <v>39539</v>
+      </c>
+      <c r="B603" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A604" s="5">
+        <v>39569</v>
+      </c>
+      <c r="B604" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A605" s="5">
+        <v>39600</v>
+      </c>
+      <c r="B605" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A606" s="5">
+        <v>39630</v>
+      </c>
+      <c r="B606" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A607" s="5">
+        <v>39661</v>
+      </c>
+      <c r="B607" s="6">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A608" s="5">
+        <v>39692</v>
+      </c>
+      <c r="B608" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A609" s="5">
+        <v>39722</v>
+      </c>
+      <c r="B609" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A610" s="5">
+        <v>39753</v>
+      </c>
+      <c r="B610" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A611" s="5">
+        <v>39783</v>
+      </c>
+      <c r="B611" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A612" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B612" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A613" s="5">
+        <v>39845</v>
+      </c>
+      <c r="B613" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A614" s="5">
+        <v>39873</v>
+      </c>
+      <c r="B614" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A615" s="5">
+        <v>39904</v>
+      </c>
+      <c r="B615" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A616" s="5">
+        <v>39934</v>
+      </c>
+      <c r="B616" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A617" s="5">
+        <v>39965</v>
+      </c>
+      <c r="B617" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A618" s="5">
+        <v>39995</v>
+      </c>
+      <c r="B618" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A619" s="5">
+        <v>40026</v>
+      </c>
+      <c r="B619" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A620" s="5">
+        <v>40057</v>
+      </c>
+      <c r="B620" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A621" s="5">
+        <v>40087</v>
+      </c>
+      <c r="B621" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A622" s="5">
+        <v>40118</v>
+      </c>
+      <c r="B622" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A623" s="5">
+        <v>40148</v>
+      </c>
+      <c r="B623" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A624" s="5">
+        <v>40179</v>
+      </c>
+      <c r="B624" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" s="5">
+        <v>40210</v>
+      </c>
+      <c r="B625" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626" s="5">
+        <v>40238</v>
+      </c>
+      <c r="B626" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627" s="5">
+        <v>40269</v>
+      </c>
+      <c r="B627" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628" s="5">
+        <v>40299</v>
+      </c>
+      <c r="B628" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629" s="5">
+        <v>40330</v>
+      </c>
+      <c r="B629" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630" s="5">
+        <v>40360</v>
+      </c>
+      <c r="B630" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631" s="5">
+        <v>40391</v>
+      </c>
+      <c r="B631" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632" s="5">
+        <v>40422</v>
+      </c>
+      <c r="B632" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633" s="5">
+        <v>40452</v>
+      </c>
+      <c r="B633" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634" s="5">
+        <v>40483</v>
+      </c>
+      <c r="B634" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635" s="5">
+        <v>40513</v>
+      </c>
+      <c r="B635" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636" s="5">
+        <v>40544</v>
+      </c>
+      <c r="B636" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637" s="5">
+        <v>40575</v>
+      </c>
+      <c r="B637" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638" s="5">
+        <v>40603</v>
+      </c>
+      <c r="B638" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639" s="5">
+        <v>40634</v>
+      </c>
+      <c r="B639" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640" s="5">
+        <v>40664</v>
+      </c>
+      <c r="B640" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641" s="5">
+        <v>40695</v>
+      </c>
+      <c r="B641" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" s="5">
+        <v>40725</v>
+      </c>
+      <c r="B642" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" s="5">
+        <v>40756</v>
+      </c>
+      <c r="B643" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" s="5">
+        <v>40787</v>
+      </c>
+      <c r="B644" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" s="5">
+        <v>40817</v>
+      </c>
+      <c r="B645" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646" s="5">
+        <v>40848</v>
+      </c>
+      <c r="B646" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647" s="5">
+        <v>40878</v>
+      </c>
+      <c r="B647" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648" s="5">
+        <v>40909</v>
+      </c>
+      <c r="B648" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649" s="5">
+        <v>40940</v>
+      </c>
+      <c r="B649" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650" s="5">
+        <v>40969</v>
+      </c>
+      <c r="B650" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651" s="5">
+        <v>41000</v>
+      </c>
+      <c r="B651" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652" s="5">
+        <v>41030</v>
+      </c>
+      <c r="B652" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653" s="5">
+        <v>41061</v>
+      </c>
+      <c r="B653" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654" s="5">
+        <v>41091</v>
+      </c>
+      <c r="B654" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655" s="5">
+        <v>41122</v>
+      </c>
+      <c r="B655" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656" s="5">
+        <v>41153</v>
+      </c>
+      <c r="B656" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657" s="5">
+        <v>41183</v>
+      </c>
+      <c r="B657" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658" s="5">
+        <v>41214</v>
+      </c>
+      <c r="B658" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659" s="5">
+        <v>41244</v>
+      </c>
+      <c r="B659" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660" s="5">
+        <v>41275</v>
+      </c>
+      <c r="B660" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661" s="5">
+        <v>41306</v>
+      </c>
+      <c r="B661" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662" s="5">
+        <v>41334</v>
+      </c>
+      <c r="B662" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663" s="5">
+        <v>41365</v>
+      </c>
+      <c r="B663" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664" s="5">
+        <v>41395</v>
+      </c>
+      <c r="B664" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665" s="5">
+        <v>41426</v>
+      </c>
+      <c r="B665" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666" s="5">
+        <v>41456</v>
+      </c>
+      <c r="B666" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667" s="5">
+        <v>41487</v>
+      </c>
+      <c r="B667" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668" s="5">
+        <v>41518</v>
+      </c>
+      <c r="B668" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669" s="5">
+        <v>41548</v>
+      </c>
+      <c r="B669" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670" s="5">
+        <v>41579</v>
+      </c>
+      <c r="B670" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671" s="5">
+        <v>41609</v>
+      </c>
+      <c r="B671" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672" s="5">
+        <v>41640</v>
+      </c>
+      <c r="B672" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673" s="5">
+        <v>41671</v>
+      </c>
+      <c r="B673" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674" s="5">
+        <v>41699</v>
+      </c>
+      <c r="B674" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675" s="5">
+        <v>41730</v>
+      </c>
+      <c r="B675" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676" s="5">
+        <v>41760</v>
+      </c>
+      <c r="B676" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677" s="5">
+        <v>41791</v>
+      </c>
+      <c r="B677" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678" s="5">
+        <v>41821</v>
+      </c>
+      <c r="B678" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679" s="5">
+        <v>41852</v>
+      </c>
+      <c r="B679" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680" s="5">
+        <v>41883</v>
+      </c>
+      <c r="B680" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681" s="5">
+        <v>41913</v>
+      </c>
+      <c r="B681" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682" s="5">
+        <v>41944</v>
+      </c>
+      <c r="B682" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683" s="5">
+        <v>41974</v>
+      </c>
+      <c r="B683" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684" s="5">
+        <v>42005</v>
+      </c>
+      <c r="B684" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685" s="5">
+        <v>42036</v>
+      </c>
+      <c r="B685" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686" s="5">
+        <v>42064</v>
+      </c>
+      <c r="B686" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687" s="5">
+        <v>42095</v>
+      </c>
+      <c r="B687" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688" s="5">
+        <v>42125</v>
+      </c>
+      <c r="B688" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689" s="5">
+        <v>42156</v>
+      </c>
+      <c r="B689" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690" s="5">
+        <v>42186</v>
+      </c>
+      <c r="B690" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691" s="5">
+        <v>42217</v>
+      </c>
+      <c r="B691" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692" s="5">
+        <v>42248</v>
+      </c>
+      <c r="B692" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693" s="5">
+        <v>42278</v>
+      </c>
+      <c r="B693" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694" s="5">
+        <v>42309</v>
+      </c>
+      <c r="B694" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695" s="5">
+        <v>42339</v>
+      </c>
+      <c r="B695" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696" s="5">
+        <v>42370</v>
+      </c>
+      <c r="B696" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697" s="5">
+        <v>42401</v>
+      </c>
+      <c r="B697" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698" s="5">
+        <v>42430</v>
+      </c>
+      <c r="B698" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699" s="5">
+        <v>42461</v>
+      </c>
+      <c r="B699" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700" s="5">
+        <v>42491</v>
+      </c>
+      <c r="B700" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701" s="5">
+        <v>42522</v>
+      </c>
+      <c r="B701" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702" s="5">
+        <v>42552</v>
+      </c>
+      <c r="B702" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703" s="5">
+        <v>42583</v>
+      </c>
+      <c r="B703" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704" s="5">
+        <v>42614</v>
+      </c>
+      <c r="B704" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705" s="5">
+        <v>42644</v>
+      </c>
+      <c r="B705" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706" s="5">
+        <v>42675</v>
+      </c>
+      <c r="B706" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707" s="5">
+        <v>42705</v>
+      </c>
+      <c r="B707" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708" s="5">
+        <v>42736</v>
+      </c>
+      <c r="B708" s="6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709" s="5">
+        <v>42767</v>
+      </c>
+      <c r="B709" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710" s="5">
+        <v>42795</v>
+      </c>
+      <c r="B710" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B711" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712" s="5">
+        <v>42856</v>
+      </c>
+      <c r="B712" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B713" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714" s="5">
+        <v>42917</v>
+      </c>
+      <c r="B714" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715" s="5">
+        <v>42948</v>
+      </c>
+      <c r="B715" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716" s="5">
+        <v>42979</v>
+      </c>
+      <c r="B716" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717" s="5">
+        <v>43009</v>
+      </c>
+      <c r="B717" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718" s="5">
+        <v>43040</v>
+      </c>
+      <c r="B718" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719" s="5">
+        <v>43070</v>
+      </c>
+      <c r="B719" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720" s="5">
+        <v>43101</v>
+      </c>
+      <c r="B720" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721" s="5">
+        <v>43132</v>
+      </c>
+      <c r="B721" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722" s="5">
+        <v>43160</v>
+      </c>
+      <c r="B722" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723" s="5">
+        <v>43191</v>
+      </c>
+      <c r="B723" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724" s="5">
+        <v>43221</v>
+      </c>
+      <c r="B724" s="6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725" s="5">
+        <v>43252</v>
+      </c>
+      <c r="B725" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726" s="5">
+        <v>43282</v>
+      </c>
+      <c r="B726" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727" s="5">
+        <v>43313</v>
+      </c>
+      <c r="B727" s="6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728" s="5">
+        <v>43344</v>
+      </c>
+      <c r="B728" s="6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729" s="5">
+        <v>43374</v>
+      </c>
+      <c r="B729" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B730" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731" s="5">
+        <v>43435</v>
+      </c>
+      <c r="B731" s="6">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732" s="5">
+        <v>43466</v>
+      </c>
+      <c r="B732" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B733" s="6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734" s="5">
+        <v>43525</v>
+      </c>
+      <c r="B734" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735" s="5">
+        <v>43556</v>
+      </c>
+      <c r="B735" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736" s="5">
+        <v>43586</v>
+      </c>
+      <c r="B736" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737" s="5">
+        <v>43617</v>
+      </c>
+      <c r="B737" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738" s="5">
+        <v>43647</v>
+      </c>
+      <c r="B738" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B739" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740" s="5">
+        <v>43709</v>
+      </c>
+      <c r="B740" s="6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741" s="5">
+        <v>43739</v>
+      </c>
+      <c r="B741" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B742" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743" s="5">
+        <v>43800</v>
+      </c>
+      <c r="B743" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744" s="5">
+        <v>43831</v>
+      </c>
+      <c r="B744" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745" s="5">
+        <v>43862</v>
+      </c>
+      <c r="B745" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746" s="5">
+        <v>43891</v>
+      </c>
+      <c r="B746" s="6">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B747" s="6">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748" s="5">
+        <v>43952</v>
+      </c>
+      <c r="B748" s="6">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B749" s="6">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B750" s="6">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B751" s="6">
+        <v>14.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62343F77-8747-429E-AF0A-8CC97D05A656}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,16 +6596,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(0.1197,0.1249)</f>
-        <v>0.12229999999999999</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="7">
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>
